--- a/doc/ins_set.xlsx
+++ b/doc/ins_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9C82A4-5853-4E71-B0AB-788174BD90B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD60056-91C7-4472-B23F-6C3DD4528485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1484,16 +1484,16 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1805,7 +1805,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P38" sqref="P38"/>
+      <selection pane="bottomLeft" activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1866,7 +1866,7 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1878,7 +1878,7 @@
       <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -1902,7 +1902,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1924,7 +1924,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
@@ -1946,7 +1946,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1968,7 +1968,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
@@ -1990,7 +1990,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
@@ -2012,7 +2012,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="F8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="19" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="17"/>
@@ -2038,7 +2038,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="9" t="s">
         <v>40</v>
       </c>
@@ -2060,7 +2060,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
@@ -2082,7 +2082,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="9" t="s">
         <v>46</v>
       </c>
@@ -2092,13 +2092,13 @@
       <c r="D11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="17"/>
@@ -2116,7 +2116,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="9" t="s">
         <v>51</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="9" t="s">
         <v>54</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="9" t="s">
         <v>56</v>
       </c>
@@ -2184,7 +2184,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="9" t="s">
         <v>58</v>
       </c>
@@ -2206,7 +2206,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="9" t="s">
         <v>60</v>
       </c>
@@ -2228,7 +2228,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="9" t="s">
         <v>63</v>
       </c>
@@ -2250,7 +2250,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="9" t="s">
         <v>65</v>
       </c>
@@ -2272,7 +2272,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="9" t="s">
         <v>67</v>
       </c>
@@ -2296,7 +2296,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="9" t="s">
         <v>69</v>
       </c>
@@ -2318,7 +2318,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -2328,10 +2328,10 @@
       <c r="D21" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="20" t="s">
         <v>73</v>
       </c>
       <c r="G21" s="18"/>
@@ -2348,7 +2348,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="9" t="s">
         <v>74</v>
       </c>
@@ -2369,12 +2369,12 @@
       <c r="K22" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L22" s="19" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="9" t="s">
         <v>76</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="L23" s="18"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -2402,7 +2402,7 @@
       <c r="D24" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="19" t="s">
         <v>295</v>
       </c>
       <c r="F24" s="17" t="s">
@@ -2430,7 +2430,7 @@
       <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="9" t="s">
         <v>81</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="9" t="s">
         <v>84</v>
       </c>
@@ -2482,7 +2482,7 @@
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="9" t="s">
         <v>87</v>
       </c>
@@ -2508,7 +2508,7 @@
       <c r="N27" s="9"/>
     </row>
     <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="9" t="s">
         <v>90</v>
       </c>
@@ -2538,7 +2538,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="9" t="s">
         <v>93</v>
       </c>
@@ -2546,13 +2546,13 @@
       <c r="D29" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="19" t="s">
         <v>95</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="19" t="s">
         <v>48</v>
       </c>
       <c r="H29" s="17"/>
@@ -2574,7 +2574,7 @@
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="9" t="s">
         <v>98</v>
       </c>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="17"/>
       <c r="I30" s="10" t="s">
         <v>38</v>
@@ -2600,7 +2600,7 @@
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="9" t="s">
         <v>99</v>
       </c>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="17"/>
       <c r="I31" s="10" t="s">
         <v>30</v>
@@ -2630,7 +2630,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="22" t="s">
         <v>101</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -2640,13 +2640,13 @@
       <c r="D32" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="19" t="s">
         <v>104</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="21"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="17"/>
       <c r="I32" s="10" t="s">
         <v>13</v>
@@ -2662,7 +2662,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="9" t="s">
         <v>109</v>
       </c>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="21"/>
+      <c r="G33" s="19"/>
       <c r="H33" s="17"/>
       <c r="I33" s="10" t="s">
         <v>38</v>
@@ -2686,7 +2686,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="9" t="s">
         <v>112</v>
       </c>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="21"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="17"/>
       <c r="I34" s="10" t="s">
         <v>42</v>
@@ -2708,7 +2708,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="9" t="s">
         <v>115</v>
       </c>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="21"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="17"/>
       <c r="I35" s="10" t="s">
         <v>18</v>
@@ -2730,7 +2730,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="9" t="s">
         <v>117</v>
       </c>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="21"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="17"/>
       <c r="I36" s="10" t="s">
         <v>26</v>
@@ -2752,7 +2752,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="9" t="s">
         <v>119</v>
       </c>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="21"/>
+      <c r="G37" s="19"/>
       <c r="H37" s="17"/>
       <c r="I37" s="10" t="s">
         <v>22</v>
@@ -2774,7 +2774,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="9" t="s">
         <v>122</v>
       </c>
@@ -2787,7 +2787,7 @@
       <c r="E38" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="20" t="s">
         <v>125</v>
       </c>
       <c r="G38" s="18"/>
@@ -2804,7 +2804,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="9" t="s">
         <v>127</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="E39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="18"/>
@@ -2836,7 +2836,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="22" t="s">
         <v>133</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -2846,10 +2846,10 @@
       <c r="D40" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="20" t="s">
         <v>136</v>
       </c>
       <c r="G40" s="18"/>
@@ -2870,7 +2870,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="9" t="s">
         <v>140</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>141</v>
       </c>
       <c r="E41" s="18"/>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="20" t="s">
         <v>142</v>
       </c>
       <c r="G41" s="18"/>
@@ -2894,7 +2894,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="9" t="s">
         <v>144</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>145</v>
       </c>
       <c r="E42" s="18"/>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="20" t="s">
         <v>146</v>
       </c>
       <c r="G42" s="18"/>
@@ -2922,7 +2922,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="9" t="s">
         <v>149</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>150</v>
       </c>
       <c r="E43" s="18"/>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="20" t="s">
         <v>142</v>
       </c>
       <c r="G43" s="18"/>
@@ -2948,7 +2948,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="9" t="s">
         <v>152</v>
       </c>
@@ -2976,7 +2976,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="9" t="s">
         <v>156</v>
       </c>
@@ -2998,7 +2998,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="9" t="s">
         <v>159</v>
       </c>
@@ -3020,7 +3020,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="9" t="s">
         <v>162</v>
       </c>
@@ -3044,7 +3044,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="8" t="s">
         <v>166</v>
       </c>
@@ -3066,7 +3066,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="9" t="s">
         <v>169</v>
       </c>
@@ -3088,7 +3088,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="21" t="s">
         <v>237</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -3105,7 +3105,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="4" t="s">
         <v>177</v>
       </c>
@@ -3120,7 +3120,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="4" t="s">
         <v>180</v>
       </c>
@@ -3135,7 +3135,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="4" t="s">
         <v>183</v>
       </c>
@@ -3150,7 +3150,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="4" t="s">
         <v>185</v>
       </c>
@@ -3165,7 +3165,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="4" t="s">
         <v>189</v>
       </c>
@@ -3180,7 +3180,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="4" t="s">
         <v>192</v>
       </c>
@@ -3195,7 +3195,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="4" t="s">
         <v>194</v>
       </c>
@@ -3210,7 +3210,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="4" t="s">
         <v>198</v>
       </c>
@@ -3225,7 +3225,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="4" t="s">
         <v>209</v>
       </c>
@@ -3240,7 +3240,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="4" t="s">
         <v>210</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="4" t="s">
         <v>213</v>
       </c>
@@ -3270,7 +3270,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="4" t="s">
         <v>216</v>
       </c>
@@ -3285,7 +3285,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="4" t="s">
         <v>220</v>
       </c>
@@ -3300,7 +3300,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="4" t="s">
         <v>222</v>
       </c>
@@ -3315,7 +3315,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="4" t="s">
         <v>225</v>
       </c>
@@ -3330,7 +3330,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="4" t="s">
         <v>228</v>
       </c>
@@ -3345,7 +3345,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="4" t="s">
         <v>231</v>
       </c>
@@ -3360,7 +3360,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="4" t="s">
         <v>233</v>
       </c>
@@ -3375,7 +3375,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="22"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="4" t="s">
         <v>235</v>
       </c>
@@ -3390,7 +3390,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="4" t="s">
         <v>238</v>
       </c>
@@ -3405,7 +3405,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="4" t="s">
         <v>241</v>
       </c>
@@ -3420,7 +3420,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="4" t="s">
         <v>244</v>
       </c>
@@ -3435,7 +3435,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="4" t="s">
         <v>247</v>
       </c>
@@ -3450,7 +3450,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="22"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="4" t="s">
         <v>249</v>
       </c>
@@ -3465,7 +3465,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="4" t="s">
         <v>252</v>
       </c>
@@ -3480,7 +3480,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="4" t="s">
         <v>254</v>
       </c>
@@ -3495,7 +3495,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="4" t="s">
         <v>257</v>
       </c>
@@ -3510,7 +3510,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="4" t="s">
         <v>260</v>
       </c>
@@ -3525,7 +3525,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="4" t="s">
         <v>263</v>
       </c>
@@ -3540,7 +3540,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="4" t="s">
         <v>267</v>
       </c>
@@ -3555,7 +3555,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="22"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="4" t="s">
         <v>270</v>
       </c>
@@ -3570,7 +3570,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="22"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="4" t="s">
         <v>273</v>
       </c>
@@ -3585,7 +3585,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="22"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="4" t="s">
         <v>276</v>
       </c>
@@ -3600,7 +3600,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="4" t="s">
         <v>279</v>
       </c>
@@ -3615,7 +3615,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="22"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="4" t="s">
         <v>282</v>
       </c>
@@ -3631,30 +3631,22 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="K2:K10"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="E11:E20"/>
-    <mergeCell ref="G11:G20"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="K11:K20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="J32:J37"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="H2:H20"/>
-    <mergeCell ref="H24:H37"/>
-    <mergeCell ref="G29:G37"/>
-    <mergeCell ref="F2:G7"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K32:K37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="E40:E49"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="K42:K49"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G49"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="J44:J49"/>
     <mergeCell ref="A50:A85"/>
     <mergeCell ref="A32:A39"/>
     <mergeCell ref="E32:E37"/>
@@ -3671,22 +3663,30 @@
     <mergeCell ref="K29:K31"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="J2:J10"/>
-    <mergeCell ref="K32:K37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="E40:E49"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="K42:K49"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G49"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="J44:J49"/>
+    <mergeCell ref="J32:J37"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="H2:H20"/>
+    <mergeCell ref="H24:H37"/>
+    <mergeCell ref="G29:G37"/>
+    <mergeCell ref="F2:G7"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="K2:K10"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="E11:E20"/>
+    <mergeCell ref="G11:G20"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="K11:K20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ins_set.xlsx
+++ b/doc/ins_set.xlsx
@@ -1123,7 +1123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,6 +1162,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Fira Code"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1230,8 +1236,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1614,7 +1620,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1652,7 +1658,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -1676,7 +1682,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -1700,7 +1706,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -1724,7 +1730,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -1748,7 +1754,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
@@ -1772,7 +1778,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>43</v>
@@ -1800,7 +1806,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>49</v>
@@ -1824,7 +1830,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>53</v>
@@ -1848,7 +1854,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>57</v>
@@ -1884,7 +1890,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>62</v>
@@ -1908,7 +1914,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>65</v>
@@ -1934,7 +1940,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>67</v>
@@ -1958,7 +1964,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>69</v>
@@ -1982,7 +1988,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>72</v>
@@ -2006,7 +2012,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>75</v>

--- a/doc/ins_set.xlsx
+++ b/doc/ins_set.xlsx
@@ -1166,7 +1166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1252,7 +1252,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">

--- a/doc/ins_set.xlsx
+++ b/doc/ins_set.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7580C1E7-5911-41B0-BBDD-CC5ECC26CF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$L$49</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -506,12 +512,6 @@
   </si>
   <si>
     <t>010(000)</t>
-  </si>
-  <si>
-    <t>1100111</t>
-  </si>
-  <si>
-    <t>x[rd] = pc + 4; pc += (x[rs1]+sext(offset)) &amp; (~1)</t>
   </si>
   <si>
     <t>Miscellaneous instructions</t>
@@ -1117,17 +1117,24 @@
       <t>jalr x0, offsetLo(x6)</t>
     </r>
   </si>
+  <si>
+    <t>x[rd] = pc + 4; pc += (x[rs1]+sext(offset)) &amp; (~1)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100111</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1146,7 +1153,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Fira Code"/>
       <family val="2"/>
     </font>
@@ -1169,6 +1176,42 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1198,71 +1241,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1273,10 +1345,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1314,71 +1386,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1406,7 +1478,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1429,11 +1501,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1442,13 +1514,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1458,7 +1530,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1467,7 +1539,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1476,7 +1548,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1484,10 +1556,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1552,35 +1624,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="14" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="47.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="18" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="77.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="77.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,48 +1691,45 @@
         <v>11</v>
       </c>
       <c r="M1" s="2"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="18" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1667,23 +1737,21 @@
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1691,23 +1759,21 @@
       <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1715,23 +1781,21 @@
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1739,23 +1803,21 @@
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
-      <c r="A7" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1763,23 +1825,21 @@
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
-      <c r="A8" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1787,27 +1847,25 @@
       <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
-      <c r="A9" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>49</v>
       </c>
@@ -1815,23 +1873,21 @@
       <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
-      <c r="A10" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>53</v>
       </c>
@@ -1839,59 +1895,55 @@
       <c r="D10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
-      <c r="A11" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="8" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="18" t="s">
         <v>60</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
-      <c r="A12" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
       <c r="B12" s="2" t="s">
         <v>62</v>
       </c>
@@ -1899,23 +1951,21 @@
       <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
-      <c r="A13" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
@@ -1923,25 +1973,23 @@
       <c r="D13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
-      <c r="A14" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
       <c r="B14" s="2" t="s">
         <v>67</v>
       </c>
@@ -1949,23 +1997,21 @@
       <c r="D14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
-      <c r="A15" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
         <v>69</v>
       </c>
@@ -1973,23 +2019,21 @@
       <c r="D15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
-      <c r="A16" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
@@ -1997,23 +2041,21 @@
       <c r="D16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
-      <c r="A17" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
         <v>75</v>
       </c>
@@ -2021,23 +2063,21 @@
       <c r="D17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="8" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
-      <c r="A18" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>78</v>
       </c>
@@ -2045,23 +2085,21 @@
       <c r="D18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
-      <c r="A19" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
       <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
@@ -2069,25 +2107,23 @@
       <c r="D19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
-      <c r="A20" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
       <c r="B20" s="2" t="s">
         <v>84</v>
       </c>
@@ -2095,41 +2131,39 @@
       <c r="D20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
       <c r="L20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
-      <c r="A21" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
       <c r="B21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="3" t="s">
         <v>20</v>
       </c>
@@ -2139,11 +2173,9 @@
       <c r="L21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
-      <c r="A22" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
       <c r="B22" s="2" t="s">
         <v>93</v>
       </c>
@@ -2151,27 +2183,25 @@
       <c r="D22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="8" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
-      <c r="A23" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
       <c r="B23" s="2" t="s">
         <v>97</v>
       </c>
@@ -2179,19 +2209,17 @@
       <c r="D23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
-      <c r="A24" s="5" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2201,23 +2229,23 @@
       <c r="D24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="8" t="s">
+      <c r="G24" s="17"/>
+      <c r="H24" s="18" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="18" t="s">
         <v>103</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -2228,8 +2256,8 @@
       </c>
       <c r="N24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>105</v>
       </c>
@@ -2237,15 +2265,15 @@
       <c r="D25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="2" t="s">
         <v>107</v>
       </c>
@@ -2254,8 +2282,8 @@
       </c>
       <c r="N25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
         <v>108</v>
       </c>
@@ -2263,15 +2291,15 @@
       <c r="D26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
       <c r="L26" s="2" t="s">
         <v>110</v>
       </c>
@@ -2280,8 +2308,8 @@
       </c>
       <c r="N26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
         <v>111</v>
       </c>
@@ -2289,15 +2317,15 @@
       <c r="D27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="2" t="s">
         <v>113</v>
       </c>
@@ -2306,38 +2334,38 @@
       </c>
       <c r="N27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
       <c r="L28" s="2" t="s">
         <v>116</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="N28" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
       <c r="B29" s="2" t="s">
         <v>117</v>
       </c>
@@ -2345,26 +2373,26 @@
       <c r="D29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="6" t="s">
         <v>123</v>
       </c>
       <c r="M29" s="2" t="s">
@@ -2372,8 +2400,8 @@
       </c>
       <c r="N29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
       <c r="B30" s="2" t="s">
         <v>124</v>
       </c>
@@ -2381,16 +2409,16 @@
       <c r="D30" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="9"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10" t="s">
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="6" t="s">
         <v>126</v>
       </c>
       <c r="M30" s="2" t="s">
@@ -2398,38 +2426,38 @@
       </c>
       <c r="N30" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="21">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
       <c r="B31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="9"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="11" t="s">
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="7" t="s">
         <v>129</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="N31" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2439,57 +2467,53 @@
       <c r="D32" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="9"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21">
-      <c r="A33" s="1"/>
+    </row>
+    <row r="33" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
       <c r="B33" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="9"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="12" t="s">
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
-      <c r="A34" s="1"/>
+    </row>
+    <row r="34" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
       <c r="B34" s="2" t="s">
         <v>141</v>
       </c>
@@ -2497,23 +2521,21 @@
       <c r="D34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="9"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="12" t="s">
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
-      <c r="A35" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
       <c r="B35" s="2" t="s">
         <v>144</v>
       </c>
@@ -2521,23 +2543,21 @@
       <c r="D35" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="9"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="17"/>
       <c r="I35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="12" t="s">
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
-      <c r="A36" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
       <c r="B36" s="2" t="s">
         <v>147</v>
       </c>
@@ -2545,23 +2565,21 @@
       <c r="D36" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="9"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="12" t="s">
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
-      <c r="A37" s="1"/>
+    </row>
+    <row r="37" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
       <c r="B37" s="2" t="s">
         <v>150</v>
       </c>
@@ -2569,55 +2587,51 @@
       <c r="D37" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="9"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="12" t="s">
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2" t="s">
+    </row>
+    <row r="38" spans="1:12" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="8" t="s">
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
-      <c r="A39" s="1"/>
+    </row>
+    <row r="39" spans="1:12" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>159</v>
       </c>
@@ -2630,1187 +2644,983 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="9"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J39" s="9"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="B40" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
-      <c r="A40" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="17"/>
+      <c r="H40" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K40" s="8" t="s">
+    </row>
+    <row r="41" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+        <v>171</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="5"/>
       <c r="I41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
-      <c r="A42" s="1"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
       <c r="B42" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G42" s="9"/>
+        <v>175</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="17"/>
       <c r="H42" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="8" t="s">
+      <c r="J42" s="17"/>
+      <c r="K42" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="B43" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="L42" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G43" s="9"/>
+        <v>180</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="17"/>
       <c r="H43" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
-      <c r="A44" s="1"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
       <c r="B44" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18" t="s">
         <v>18</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="9"/>
+      <c r="K44" s="17"/>
       <c r="L44" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
-      <c r="A45" s="1"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
       <c r="B45" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+        <v>187</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
       <c r="I45" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
       <c r="L45" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25">
-      <c r="A46" s="1"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
       <c r="B46" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+        <v>190</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
       <c r="I46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
       <c r="L46" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="34.5">
-      <c r="A47" s="1"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
       <c r="B47" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
       <c r="L47" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="34.5">
-      <c r="A48" s="1"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
       <c r="B48" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+        <v>197</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
       <c r="I48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
       <c r="L48" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
-      <c r="A49" s="1"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
       <c r="B49" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+        <v>200</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
       <c r="I49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
       <c r="L49" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
-      <c r="A50" s="5" t="s">
+      <c r="D50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E50" s="4"/>
       <c r="F50" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
       <c r="L50" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" hidden="1">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51" s="4"/>
       <c r="F51" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
       <c r="L51" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+      <c r="B52" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E52" s="4"/>
       <c r="F52" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
       <c r="L52" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+      <c r="B53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E53" s="4"/>
       <c r="F53" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
       <c r="L53" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+      <c r="B54" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E54" s="4"/>
       <c r="F54" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
       <c r="L54" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
+      <c r="B55" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E55" s="4"/>
       <c r="F55" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
       <c r="L55" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+      <c r="B56" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E56" s="4"/>
       <c r="F56" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
       <c r="L56" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
+      <c r="B57" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E57" s="4"/>
       <c r="F57" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
       <c r="L57" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
+      <c r="B58" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E58" s="4"/>
       <c r="F58" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
       <c r="L58" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15"/>
+      <c r="B59" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2" t="s">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="3" t="s">
+    </row>
+    <row r="60" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
+      <c r="B60" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2" t="s">
+      <c r="F60" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="2" t="s">
+    </row>
+    <row r="61" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2" t="s">
+      <c r="F61" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="2" t="s">
+    </row>
+    <row r="62" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
+      <c r="B62" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2" t="s">
+      <c r="F62" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="2" t="s">
+    </row>
+    <row r="63" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="15"/>
+      <c r="B63" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2" t="s">
+      <c r="F63" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="2" t="s">
+    </row>
+    <row r="64" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="15"/>
+      <c r="B64" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2" t="s">
+      <c r="F64" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="2" t="s">
+    </row>
+    <row r="65" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="15"/>
+      <c r="B65" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
-      <c r="A65" s="1"/>
-      <c r="B65" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E65" s="4"/>
       <c r="F65" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
       <c r="L65" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="15"/>
+      <c r="B66" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E66" s="4"/>
       <c r="F66" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
       <c r="L66" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="15"/>
+      <c r="B67" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2" t="s">
+      <c r="F67" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="2" t="s">
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="3" t="s">
+    </row>
+    <row r="68" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="15"/>
+      <c r="B68" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
-      <c r="A68" s="1"/>
-      <c r="B68" s="2" t="s">
+      <c r="F68" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="2" t="s">
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="3" t="s">
+    </row>
+    <row r="69" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="15"/>
+      <c r="B69" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2" t="s">
+      <c r="F69" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="2" t="s">
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="3" t="s">
+    </row>
+    <row r="70" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="15"/>
+      <c r="B70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
-      <c r="A70" s="1"/>
-      <c r="B70" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E70" s="4"/>
       <c r="F70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
       <c r="L70" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="15"/>
+      <c r="B71" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
-      <c r="A71" s="1"/>
-      <c r="B71" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E71" s="4"/>
       <c r="F71" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
       <c r="L71" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15"/>
+      <c r="B72" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
-      <c r="A72" s="1"/>
-      <c r="B72" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E72" s="4"/>
       <c r="F72" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
       <c r="L72" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
-      <c r="A73" s="1"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="15"/>
       <c r="B73" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C73" s="4"/>
+        <v>275</v>
+      </c>
       <c r="D73" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E73" s="4"/>
+        <v>275</v>
+      </c>
       <c r="F73" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
       <c r="L73" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="15"/>
+      <c r="B74" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2" t="s">
+      <c r="F74" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="2" t="s">
+    </row>
+    <row r="75" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="15"/>
+      <c r="B75" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" hidden="1">
-      <c r="A75" s="1"/>
-      <c r="B75" s="2" t="s">
+      <c r="F75" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="2" t="s">
+    </row>
+    <row r="76" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="15"/>
+      <c r="B76" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2" t="s">
+      <c r="F76" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="2" t="s">
+    </row>
+    <row r="77" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="15"/>
+      <c r="B77" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
-      <c r="A77" s="1"/>
-      <c r="B77" s="2" t="s">
+      <c r="F77" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="2" t="s">
+    </row>
+    <row r="78" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="15"/>
+      <c r="B78" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2" t="s">
+      <c r="F78" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="2" t="s">
+    </row>
+    <row r="79" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="15"/>
+      <c r="B79" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
-      <c r="A79" s="1"/>
-      <c r="B79" s="2" t="s">
+      <c r="F79" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="2" t="s">
+    </row>
+    <row r="80" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="15"/>
+      <c r="B80" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
-      <c r="A80" s="1"/>
-      <c r="B80" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E80" s="4"/>
       <c r="F80" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G80" s="4"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
       <c r="L80" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="15"/>
+      <c r="B81" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E81" s="4"/>
       <c r="F81" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G81" s="4"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
       <c r="L81" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="15"/>
+      <c r="B82" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
-      <c r="A82" s="1"/>
-      <c r="B82" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E82" s="4"/>
       <c r="F82" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
       <c r="L82" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="15"/>
+      <c r="B83" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" hidden="1">
-      <c r="A83" s="1"/>
-      <c r="B83" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E83" s="4"/>
       <c r="F83" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G83" s="4"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
       <c r="L83" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="15"/>
+      <c r="B84" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
-      <c r="A84" s="1"/>
-      <c r="B84" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E84" s="4"/>
       <c r="F84" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G84" s="4"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
       <c r="L84" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="15"/>
+      <c r="B85" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
-      <c r="A85" s="1"/>
-      <c r="B85" s="2" t="s">
+      <c r="F85" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="F2:G7"/>
-    <mergeCell ref="H2:H20"/>
-    <mergeCell ref="J2:J10"/>
-    <mergeCell ref="K2:K10"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="E11:E20"/>
-    <mergeCell ref="G11:G20"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J20"/>
-    <mergeCell ref="K11:K20"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I23"/>
-    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A50:A85"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="E40:E49"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="K42:K49"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G49"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="J44:J49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="J32:J37"/>
+    <mergeCell ref="K32:K37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="A24:A31"/>
@@ -3827,26 +3637,30 @@
     <mergeCell ref="A32:A39"/>
     <mergeCell ref="E32:E37"/>
     <mergeCell ref="F32:F37"/>
-    <mergeCell ref="J32:J37"/>
-    <mergeCell ref="K32:K37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="E40:E49"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="K42:K49"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G49"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="J44:J49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="A50:A85"/>
+    <mergeCell ref="K2:K10"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="E11:E20"/>
+    <mergeCell ref="G11:G20"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J20"/>
+    <mergeCell ref="K11:K20"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="F2:G7"/>
+    <mergeCell ref="H2:H20"/>
+    <mergeCell ref="J2:J10"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I23"/>
+    <mergeCell ref="J22:J23"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/ins_set.xlsx
+++ b/doc/ins_set.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7580C1E7-5911-41B0-BBDD-CC5ECC26CF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$L$49</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -331,7 +325,7 @@
     <t>load byte</t>
   </si>
   <si>
-    <t>I/LS</t>
+    <t>I/L</t>
   </si>
   <si>
     <t>0000011</t>
@@ -512,6 +506,12 @@
   </si>
   <si>
     <t>010(000)</t>
+  </si>
+  <si>
+    <t>1100111</t>
+  </si>
+  <si>
+    <t>x[rd] = pc + 4; pc += (x[rs1]+sext(offset)) &amp; (~1)</t>
   </si>
   <si>
     <t>Miscellaneous instructions</t>
@@ -1117,24 +1117,17 @@
       <t>jalr x0, offsetLo(x6)</t>
     </r>
   </si>
-  <si>
-    <t>x[rd] = pc + 4; pc += (x[rs1]+sext(offset)) &amp; (~1)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100111</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1153,7 +1146,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFff0000"/>
       <name val="Fira Code"/>
       <family val="2"/>
     </font>
@@ -1172,18 +1165,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1199,19 +1180,10 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1241,100 +1213,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="24">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1345,10 +1303,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1386,71 +1344,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1478,7 +1436,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1501,11 +1459,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1514,13 +1472,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1530,7 +1488,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1539,7 +1497,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1548,7 +1506,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1556,10 +1514,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1624,36 +1582,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="A39:XFD39"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="77.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="20" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="21" width="5.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="47.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="21" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="21" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="23" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="23" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="23" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="23" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="20" width="77.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="21" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1691,45 +1648,48 @@
         <v>11</v>
       </c>
       <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="N1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1737,21 +1697,23 @@
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1759,21 +1721,23 @@
       <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1781,21 +1745,23 @@
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1803,21 +1769,23 @@
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1825,21 +1793,23 @@
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1847,25 +1817,27 @@
       <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>49</v>
       </c>
@@ -1873,21 +1845,23 @@
       <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>53</v>
       </c>
@@ -1895,55 +1869,59 @@
       <c r="D10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
+      <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="8" t="s">
         <v>60</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+      <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>62</v>
       </c>
@@ -1951,21 +1929,23 @@
       <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+      <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
@@ -1973,23 +1953,25 @@
       <c r="D13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+      <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>67</v>
       </c>
@@ -1997,21 +1979,23 @@
       <c r="D14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+      <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>69</v>
       </c>
@@ -2019,21 +2003,23 @@
       <c r="D15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+      <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
@@ -2041,21 +2027,23 @@
       <c r="D16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+      <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>75</v>
       </c>
@@ -2063,21 +2051,23 @@
       <c r="D17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+      <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>78</v>
       </c>
@@ -2085,21 +2075,23 @@
       <c r="D18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+      <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
@@ -2107,23 +2099,25 @@
       <c r="D19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
+      <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>84</v>
       </c>
@@ -2131,39 +2125,41 @@
       <c r="D20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
+      <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="3" t="s">
         <v>20</v>
       </c>
@@ -2173,9 +2169,11 @@
       <c r="L21" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+      <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>93</v>
       </c>
@@ -2183,25 +2181,27 @@
       <c r="D22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18" t="s">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
+      <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>97</v>
       </c>
@@ -2209,17 +2209,19 @@
       <c r="D23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
+      <c r="A24" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2229,23 +2231,23 @@
       <c r="D24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="8" t="s">
         <v>103</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -2256,8 +2258,8 @@
       </c>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
+      <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>105</v>
       </c>
@@ -2265,15 +2267,15 @@
       <c r="D25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="2" t="s">
         <v>107</v>
       </c>
@@ -2282,8 +2284,8 @@
       </c>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
+      <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>108</v>
       </c>
@@ -2291,15 +2293,15 @@
       <c r="D26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="2" t="s">
         <v>110</v>
       </c>
@@ -2308,8 +2310,8 @@
       </c>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
+      <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>111</v>
       </c>
@@ -2317,15 +2319,15 @@
       <c r="D27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="2" t="s">
         <v>113</v>
       </c>
@@ -2334,38 +2336,38 @@
       </c>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21">
+      <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
       <c r="L28" s="2" t="s">
         <v>116</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="N28" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
+      <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>117</v>
       </c>
@@ -2373,26 +2375,26 @@
       <c r="D29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="17"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K29" s="18" t="s">
+      <c r="K29" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="10" t="s">
         <v>123</v>
       </c>
       <c r="M29" s="2" t="s">
@@ -2400,8 +2402,8 @@
       </c>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
+      <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>124</v>
       </c>
@@ -2409,16 +2411,16 @@
       <c r="D30" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="17"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="6" t="s">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10" t="s">
         <v>126</v>
       </c>
       <c r="M30" s="2" t="s">
@@ -2426,38 +2428,38 @@
       </c>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="21">
+      <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="17"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="7" t="s">
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="11" t="s">
         <v>129</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
+      <c r="A32" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2467,53 +2469,57 @@
       <c r="D32" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="17"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="18" t="s">
+      <c r="J32" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="K32" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21">
+      <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="17"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="8" t="s">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="12" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
+      <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>141</v>
       </c>
@@ -2521,21 +2527,23 @@
       <c r="D34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="17"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="8" t="s">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
+      <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>144</v>
       </c>
@@ -2543,21 +2551,23 @@
       <c r="D35" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="17"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="8" t="s">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="12" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
+      <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>147</v>
       </c>
@@ -2565,21 +2575,23 @@
       <c r="D36" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="17"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="8" t="s">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="12" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
+      <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
         <v>150</v>
       </c>
@@ -2587,51 +2599,55 @@
       <c r="D37" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="17"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="8" t="s">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="12" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="7" t="s">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21">
+      <c r="A38" s="1"/>
+      <c r="B38" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="24" t="s">
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="25" t="s">
+      <c r="K38" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="L38" s="26" t="s">
+      <c r="L38" s="17" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
+      <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
         <v>159</v>
       </c>
@@ -2644,983 +2660,1187 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="17"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J39" s="23"/>
+      <c r="J39" s="15"/>
       <c r="K39" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
         <v>163</v>
       </c>
+      <c r="L39" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
+      <c r="A40" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="B40" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E40" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G40" s="17"/>
+      <c r="F40" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" s="9"/>
       <c r="H40" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="K40" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="L40" s="7" t="s">
+      <c r="J40" s="8" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
+      <c r="K40" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
+      <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="5"/>
+        <v>173</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
+      <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="G42" s="17"/>
+        <v>177</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="9"/>
       <c r="H42" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="17"/>
-      <c r="K42" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
+      <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="17"/>
+        <v>182</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" s="9"/>
       <c r="H43" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
+      <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J44" s="18" t="s">
+      <c r="J44" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="17"/>
+      <c r="K44" s="9"/>
       <c r="L44" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
+        <v>187</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
+      <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
+        <v>189</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
       <c r="L45" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
+        <v>190</v>
+      </c>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25">
+      <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
+        <v>192</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
       <c r="L46" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
+        <v>193</v>
+      </c>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="34.5">
+      <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
       <c r="L47" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+        <v>197</v>
+      </c>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="34.5">
+      <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
+        <v>199</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
       <c r="L48" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
+        <v>200</v>
+      </c>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
+      <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
+        <v>202</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
       <c r="L49" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
+      <c r="A50" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C50" s="4"/>
       <c r="D50" s="2" t="s">
-        <v>204</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E50" s="4"/>
       <c r="F50" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
       <c r="L50" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
+        <v>207</v>
+      </c>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" hidden="1">
+      <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="2" t="s">
-        <v>207</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E51" s="4"/>
       <c r="F51" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
       <c r="L51" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
+        <v>210</v>
+      </c>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
+      <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C52" s="4"/>
       <c r="D52" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E52" s="4"/>
       <c r="F52" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
       <c r="L52" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
+      <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
-        <v>212</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C53" s="4"/>
       <c r="D53" s="2" t="s">
-        <v>213</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E53" s="4"/>
       <c r="F53" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
       <c r="L53" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
+        <v>216</v>
+      </c>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
+      <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C54" s="4"/>
       <c r="D54" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E54" s="4"/>
       <c r="F54" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
       <c r="L54" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
+        <v>219</v>
+      </c>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
+      <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
-        <v>218</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C55" s="4"/>
       <c r="D55" s="2" t="s">
-        <v>219</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E55" s="4"/>
       <c r="F55" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
       <c r="L55" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
+        <v>222</v>
+      </c>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
+      <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
-        <v>221</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C56" s="4"/>
       <c r="D56" s="2" t="s">
-        <v>222</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E56" s="4"/>
       <c r="F56" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
       <c r="L56" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
+        <v>225</v>
+      </c>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
+      <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
-        <v>224</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C57" s="4"/>
       <c r="D57" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="E57" s="4"/>
       <c r="F57" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
       <c r="L57" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
+        <v>228</v>
+      </c>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
+      <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
-        <v>227</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C58" s="4"/>
       <c r="D58" s="2" t="s">
-        <v>228</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E58" s="4"/>
       <c r="F58" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
       <c r="L58" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
+        <v>231</v>
+      </c>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
+      <c r="A59" s="1"/>
       <c r="B59" s="2" t="s">
-        <v>230</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C59" s="4"/>
       <c r="D59" s="2" t="s">
-        <v>230</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="E59" s="4"/>
       <c r="F59" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
+        <v>233</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
       <c r="L59" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
+        <v>234</v>
+      </c>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
+      <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
-        <v>233</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C60" s="4"/>
       <c r="D60" s="2" t="s">
-        <v>234</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="E60" s="4"/>
       <c r="F60" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
       <c r="L60" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
+        <v>237</v>
+      </c>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
+      <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
-        <v>236</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="2" t="s">
-        <v>237</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="E61" s="4"/>
       <c r="F61" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
+        <v>184</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
       <c r="L61" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
+        <v>240</v>
+      </c>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
+      <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
-        <v>239</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C62" s="4"/>
       <c r="D62" s="2" t="s">
-        <v>240</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="E62" s="4"/>
       <c r="F62" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+        <v>194</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
       <c r="L62" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
+        <v>243</v>
+      </c>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
+      <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
-        <v>242</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C63" s="4"/>
       <c r="D63" s="2" t="s">
-        <v>243</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E63" s="4"/>
       <c r="F63" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
       <c r="L63" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
+        <v>246</v>
+      </c>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
+      <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
-        <v>245</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C64" s="4"/>
       <c r="D64" s="2" t="s">
-        <v>246</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="E64" s="4"/>
       <c r="F64" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
+        <v>201</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
       <c r="L64" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
+        <v>249</v>
+      </c>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
+      <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
-        <v>248</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C65" s="4"/>
       <c r="D65" s="2" t="s">
-        <v>249</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E65" s="4"/>
       <c r="F65" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
       <c r="L65" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
+        <v>252</v>
+      </c>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
+      <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
-        <v>251</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C66" s="4"/>
       <c r="D66" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="E66" s="4"/>
       <c r="F66" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
       <c r="L66" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
+        <v>255</v>
+      </c>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
+      <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
-        <v>254</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C67" s="4"/>
       <c r="D67" s="2" t="s">
-        <v>255</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="E67" s="4"/>
       <c r="F67" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
+        <v>258</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
       <c r="L67" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
+        <v>259</v>
+      </c>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
+      <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
-        <v>258</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C68" s="4"/>
       <c r="D68" s="2" t="s">
-        <v>259</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="E68" s="4"/>
       <c r="F68" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
+        <v>262</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
       <c r="L68" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="15"/>
+        <v>263</v>
+      </c>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
+      <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
-        <v>262</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C69" s="4"/>
       <c r="D69" s="2" t="s">
-        <v>263</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E69" s="4"/>
       <c r="F69" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
+        <v>266</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
       <c r="L69" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
+        <v>267</v>
+      </c>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
+      <c r="A70" s="1"/>
       <c r="B70" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="E70" s="4"/>
       <c r="F70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
       <c r="L70" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15"/>
+        <v>270</v>
+      </c>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
+      <c r="A71" s="1"/>
       <c r="B71" s="2" t="s">
-        <v>269</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C71" s="4"/>
       <c r="D71" s="2" t="s">
-        <v>270</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="E71" s="4"/>
       <c r="F71" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
       <c r="L71" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15"/>
+        <v>273</v>
+      </c>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
+      <c r="A72" s="1"/>
       <c r="B72" s="2" t="s">
-        <v>272</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C72" s="4"/>
       <c r="D72" s="2" t="s">
-        <v>273</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E72" s="4"/>
       <c r="F72" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
       <c r="L72" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15"/>
+        <v>276</v>
+      </c>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
+      <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
-        <v>275</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C73" s="4"/>
       <c r="D73" s="2" t="s">
-        <v>275</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="E73" s="4"/>
       <c r="F73" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
       <c r="L73" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15"/>
+        <v>278</v>
+      </c>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
+      <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
-        <v>277</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C74" s="4"/>
       <c r="D74" s="2" t="s">
-        <v>278</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="E74" s="4"/>
       <c r="F74" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
       <c r="L74" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15"/>
+        <v>281</v>
+      </c>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" hidden="1">
+      <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
-        <v>280</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C75" s="4"/>
       <c r="D75" s="2" t="s">
-        <v>281</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="E75" s="4"/>
       <c r="F75" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
       <c r="L75" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="15"/>
+        <v>284</v>
+      </c>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
+      <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
-        <v>283</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C76" s="4"/>
       <c r="D76" s="2" t="s">
-        <v>284</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="E76" s="4"/>
       <c r="F76" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
       <c r="L76" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="15"/>
+        <v>287</v>
+      </c>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
+      <c r="A77" s="1"/>
       <c r="B77" s="2" t="s">
-        <v>286</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C77" s="4"/>
       <c r="D77" s="2" t="s">
-        <v>287</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="E77" s="4"/>
       <c r="F77" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
       <c r="L77" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="15"/>
+        <v>290</v>
+      </c>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
+      <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
-        <v>289</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C78" s="4"/>
       <c r="D78" s="2" t="s">
-        <v>290</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="E78" s="4"/>
       <c r="F78" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
       <c r="L78" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="15"/>
+        <v>293</v>
+      </c>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
+      <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
-        <v>292</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C79" s="4"/>
       <c r="D79" s="2" t="s">
-        <v>293</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="E79" s="4"/>
       <c r="F79" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
       <c r="L79" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15"/>
+        <v>296</v>
+      </c>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
+      <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
-        <v>295</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C80" s="4"/>
       <c r="D80" s="2" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="E80" s="4"/>
       <c r="F80" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
       <c r="L80" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15"/>
+        <v>299</v>
+      </c>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
+      <c r="A81" s="1"/>
       <c r="B81" s="2" t="s">
-        <v>298</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C81" s="4"/>
       <c r="D81" s="2" t="s">
-        <v>299</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="E81" s="4"/>
       <c r="F81" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
       <c r="L81" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15"/>
+        <v>302</v>
+      </c>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
+      <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
-        <v>301</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C82" s="4"/>
       <c r="D82" s="2" t="s">
-        <v>302</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="E82" s="4"/>
       <c r="F82" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
       <c r="L82" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="15"/>
+        <v>305</v>
+      </c>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" hidden="1">
+      <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
-        <v>304</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C83" s="4"/>
       <c r="D83" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="E83" s="4"/>
       <c r="F83" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
       <c r="L83" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="15"/>
+        <v>308</v>
+      </c>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
+      <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
-        <v>307</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C84" s="4"/>
       <c r="D84" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E84" s="4"/>
       <c r="F84" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
       <c r="L84" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="15"/>
+        <v>311</v>
+      </c>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
+      <c r="A85" s="1"/>
       <c r="B85" s="2" t="s">
-        <v>310</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C85" s="4"/>
       <c r="D85" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="E85" s="4"/>
       <c r="F85" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
+        <v>233</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
       <c r="L85" s="2" t="s">
-        <v>312</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A50:A85"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="E40:E49"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="K42:K49"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G49"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="J44:J49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="J32:J37"/>
-    <mergeCell ref="K32:K37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="F2:G7"/>
+    <mergeCell ref="H2:H20"/>
+    <mergeCell ref="J2:J10"/>
+    <mergeCell ref="K2:K10"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="E11:E20"/>
+    <mergeCell ref="G11:G20"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J20"/>
+    <mergeCell ref="K11:K20"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I23"/>
+    <mergeCell ref="J22:J23"/>
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="A24:A31"/>
@@ -3637,30 +3857,26 @@
     <mergeCell ref="A32:A39"/>
     <mergeCell ref="E32:E37"/>
     <mergeCell ref="F32:F37"/>
-    <mergeCell ref="K2:K10"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="E11:E20"/>
-    <mergeCell ref="G11:G20"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J20"/>
-    <mergeCell ref="K11:K20"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="F2:G7"/>
-    <mergeCell ref="H2:H20"/>
-    <mergeCell ref="J2:J10"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I23"/>
-    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J32:J37"/>
+    <mergeCell ref="K32:K37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="E40:E49"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="K42:K49"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G49"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="J44:J49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="A50:A85"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/ins_set.xlsx
+++ b/doc/ins_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BCCE55-B542-4F6B-8922-7CD264DB66C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F45577-0F38-4C6D-A168-FC0150D34AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="318">
   <si>
     <t>struct</t>
   </si>
@@ -1138,6 +1138,10 @@
   </si>
   <si>
     <t>1100111</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1241,26 +1245,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1268,11 +1260,23 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1582,8 +1586,8 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1600,7 +1604,7 @@
     <col min="11" max="11" width="7.625" style="3" customWidth="1"/>
     <col min="12" max="12" width="10.625" style="3" customWidth="1"/>
     <col min="13" max="13" width="11.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="57.25" style="19" customWidth="1"/>
+    <col min="14" max="14" width="57.25" style="13" customWidth="1"/>
     <col min="15" max="15" width="13.625" style="2" customWidth="1"/>
     <col min="16" max="16" width="13.625" style="5" customWidth="1"/>
     <col min="17" max="16384" width="9" style="5"/>
@@ -1646,7 +1650,7 @@
       <c r="M1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="7" t="s">
@@ -1655,7 +1659,7 @@
       <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8">
@@ -1673,13 +1677,13 @@
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="18" t="s">
         <v>17</v>
       </c>
@@ -1692,13 +1696,13 @@
       <c r="M2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="13" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="8">
         <v>3</v>
       </c>
@@ -1714,22 +1718,22 @@
       <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="18"/>
       <c r="K3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="18"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="19" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="8">
         <v>4</v>
       </c>
@@ -1739,22 +1743,22 @@
       <c r="F4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="18"/>
       <c r="K4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="L4" s="18"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="19" t="s">
+      <c r="M4" s="19"/>
+      <c r="N4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="8">
         <v>5</v>
       </c>
@@ -1764,22 +1768,22 @@
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="18"/>
       <c r="K5" s="11" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="18"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="19" t="s">
+      <c r="M5" s="19"/>
+      <c r="N5" s="13" t="s">
         <v>33</v>
       </c>
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="8">
         <v>6</v>
       </c>
@@ -1789,22 +1793,22 @@
       <c r="F6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="18"/>
       <c r="K6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="L6" s="18"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="19" t="s">
+      <c r="M6" s="19"/>
+      <c r="N6" s="13" t="s">
         <v>37</v>
       </c>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="8">
         <v>7</v>
       </c>
@@ -1814,22 +1818,22 @@
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="18"/>
       <c r="K7" s="11" t="s">
         <v>40</v>
       </c>
       <c r="L7" s="18"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="19" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="13" t="s">
         <v>41</v>
       </c>
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="8">
         <v>8</v>
       </c>
@@ -1839,11 +1843,11 @@
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="18"/>
@@ -1851,14 +1855,14 @@
         <v>46</v>
       </c>
       <c r="L8" s="18"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="19" t="s">
+      <c r="M8" s="19"/>
+      <c r="N8" s="13" t="s">
         <v>47</v>
       </c>
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="8">
         <v>9</v>
       </c>
@@ -1868,22 +1872,22 @@
       <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18" t="s">
         <v>50</v>
       </c>
       <c r="L9" s="18"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="19" t="s">
+      <c r="M9" s="19"/>
+      <c r="N9" s="13" t="s">
         <v>51</v>
       </c>
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="8">
         <v>10</v>
       </c>
@@ -1893,22 +1897,22 @@
       <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="18"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="19" t="s">
+      <c r="M10" s="19"/>
+      <c r="N10" s="13" t="s">
         <v>55</v>
       </c>
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8">
         <v>11</v>
       </c>
@@ -1924,13 +1928,13 @@
       <c r="F11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="20" t="s">
         <v>57</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J11" s="18"/>
@@ -1941,13 +1945,13 @@
       <c r="M11" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="13" t="s">
         <v>60</v>
       </c>
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="8">
         <v>12</v>
       </c>
@@ -1957,25 +1961,28 @@
       <c r="D12" s="4" t="s">
         <v>307</v>
       </c>
+      <c r="E12" s="4" t="s">
+        <v>317</v>
+      </c>
       <c r="F12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="14"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="18"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="19" t="s">
+      <c r="M12" s="19"/>
+      <c r="N12" s="13" t="s">
         <v>63</v>
       </c>
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="8">
         <v>13</v>
       </c>
@@ -1991,24 +1998,24 @@
       <c r="F13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="18"/>
       <c r="K13" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L13" s="18"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="19" t="s">
+      <c r="M13" s="19"/>
+      <c r="N13" s="13" t="s">
         <v>65</v>
       </c>
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="8">
         <v>14</v>
       </c>
@@ -2018,22 +2025,22 @@
       <c r="F14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="18"/>
       <c r="K14" s="11" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="18"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="19" t="s">
+      <c r="M14" s="19"/>
+      <c r="N14" s="13" t="s">
         <v>67</v>
       </c>
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="8">
         <v>15</v>
       </c>
@@ -2043,22 +2050,22 @@
       <c r="F15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="18"/>
       <c r="K15" s="11" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="18"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="19" t="s">
+      <c r="M15" s="19"/>
+      <c r="N15" s="13" t="s">
         <v>70</v>
       </c>
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="8">
         <v>16</v>
       </c>
@@ -2068,22 +2075,22 @@
       <c r="F16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="18"/>
       <c r="K16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="L16" s="18"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="19" t="s">
+      <c r="M16" s="19"/>
+      <c r="N16" s="13" t="s">
         <v>73</v>
       </c>
       <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="8">
         <v>17</v>
       </c>
@@ -2093,22 +2100,22 @@
       <c r="F17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18" t="s">
         <v>50</v>
       </c>
       <c r="L17" s="18"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="19" t="s">
+      <c r="M17" s="19"/>
+      <c r="N17" s="13" t="s">
         <v>76</v>
       </c>
       <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="8">
         <v>18</v>
       </c>
@@ -2118,22 +2125,22 @@
       <c r="F18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="14"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="14"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="14"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="18"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="19" t="s">
+      <c r="M18" s="19"/>
+      <c r="N18" s="13" t="s">
         <v>79</v>
       </c>
       <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="8">
         <v>19</v>
       </c>
@@ -2143,24 +2150,24 @@
       <c r="F19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="14"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="18"/>
       <c r="K19" s="11" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="18"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="19" t="s">
+      <c r="M19" s="19"/>
+      <c r="N19" s="13" t="s">
         <v>82</v>
       </c>
       <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="8">
         <v>20</v>
       </c>
@@ -2170,22 +2177,22 @@
       <c r="F20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="18"/>
       <c r="K20" s="11" t="s">
         <v>40</v>
       </c>
       <c r="L20" s="18"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="19" t="s">
+      <c r="M20" s="19"/>
+      <c r="N20" s="13" t="s">
         <v>85</v>
       </c>
       <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="8">
         <v>21</v>
       </c>
@@ -2198,26 +2205,26 @@
       <c r="F21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="18"/>
       <c r="M21" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="13" t="s">
         <v>91</v>
       </c>
       <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="8">
         <v>22</v>
       </c>
@@ -2227,24 +2234,24 @@
       <c r="F22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="20" t="s">
+      <c r="N22" s="16" t="s">
         <v>95</v>
       </c>
       <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="8">
         <v>23</v>
       </c>
@@ -2260,18 +2267,18 @@
       <c r="F23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="18"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="21"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="17"/>
       <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="23" t="s">
         <v>98</v>
       </c>
       <c r="B24" s="8">
@@ -2283,13 +2290,13 @@
       <c r="F24" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="20" t="s">
         <v>306</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="14"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="18" t="s">
         <v>17</v>
       </c>
@@ -2300,13 +2307,13 @@
       <c r="M24" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="13" t="s">
         <v>102</v>
       </c>
       <c r="O24" s="7"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="8">
         <v>25</v>
       </c>
@@ -2316,22 +2323,22 @@
       <c r="F25" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="18"/>
       <c r="K25" s="11" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="18"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="19" t="s">
+      <c r="M25" s="19"/>
+      <c r="N25" s="13" t="s">
         <v>105</v>
       </c>
       <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="8">
         <v>26</v>
       </c>
@@ -2341,22 +2348,22 @@
       <c r="F26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="18"/>
       <c r="K26" s="11" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="18"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="19" t="s">
+      <c r="M26" s="19"/>
+      <c r="N26" s="13" t="s">
         <v>108</v>
       </c>
       <c r="O26" s="7"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="8">
         <v>27</v>
       </c>
@@ -2366,22 +2373,22 @@
       <c r="F27" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="18"/>
       <c r="K27" s="11" t="s">
         <v>50</v>
       </c>
       <c r="L27" s="18"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="19" t="s">
+      <c r="M27" s="19"/>
+      <c r="N27" s="13" t="s">
         <v>111</v>
       </c>
       <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="8">
         <v>28</v>
       </c>
@@ -2394,22 +2401,22 @@
       <c r="F28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="18"/>
       <c r="K28" s="11" t="s">
         <v>36</v>
       </c>
       <c r="L28" s="18"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="19" t="s">
+      <c r="M28" s="19"/>
+      <c r="N28" s="13" t="s">
         <v>114</v>
       </c>
       <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="8">
         <v>29</v>
       </c>
@@ -2419,13 +2426,13 @@
       <c r="F29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="20" t="s">
         <v>117</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="I29" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J29" s="18"/>
@@ -2438,13 +2445,13 @@
       <c r="M29" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="13" t="s">
         <v>121</v>
       </c>
       <c r="O29" s="7"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="8">
         <v>30</v>
       </c>
@@ -2454,22 +2461,22 @@
       <c r="F30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="17"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
       <c r="J30" s="18"/>
       <c r="K30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="19" t="s">
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="13" t="s">
         <v>124</v>
       </c>
       <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="8">
         <v>31</v>
       </c>
@@ -2479,25 +2486,28 @@
       <c r="D31" s="4" t="s">
         <v>307</v>
       </c>
+      <c r="E31" s="4" t="s">
+        <v>317</v>
+      </c>
       <c r="F31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="17"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
       <c r="J31" s="18"/>
       <c r="K31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="19" t="s">
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="13" t="s">
         <v>127</v>
       </c>
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="23" t="s">
         <v>128</v>
       </c>
       <c r="B32" s="8">
@@ -2515,13 +2525,13 @@
       <c r="F32" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="20" t="s">
         <v>131</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="I32" s="17"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="18"/>
       <c r="K32" s="11" t="s">
         <v>18</v>
@@ -2532,13 +2542,13 @@
       <c r="M32" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="13" t="s">
         <v>135</v>
       </c>
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="8">
         <v>33</v>
       </c>
@@ -2554,22 +2564,22 @@
       <c r="F33" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="17"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
       <c r="J33" s="18"/>
       <c r="K33" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="19" t="s">
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="13" t="s">
         <v>138</v>
       </c>
       <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="8">
         <v>34</v>
       </c>
@@ -2585,22 +2595,22 @@
       <c r="F34" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="17"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
       <c r="J34" s="18"/>
       <c r="K34" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="22" t="s">
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="14" t="s">
         <v>141</v>
       </c>
       <c r="O34" s="7"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="8">
         <v>35</v>
       </c>
@@ -2616,22 +2626,22 @@
       <c r="F35" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="17"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
       <c r="J35" s="18"/>
       <c r="K35" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="22" t="s">
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="14" t="s">
         <v>144</v>
       </c>
       <c r="O35" s="7"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="8">
         <v>36</v>
       </c>
@@ -2647,22 +2657,22 @@
       <c r="F36" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="17"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20"/>
       <c r="J36" s="18"/>
       <c r="K36" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="19" t="s">
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="13" t="s">
         <v>314</v>
       </c>
       <c r="O36" s="7"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="8">
         <v>37</v>
       </c>
@@ -2678,22 +2688,22 @@
       <c r="F37" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="17"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="20"/>
       <c r="J37" s="18"/>
       <c r="K37" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="19" t="s">
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="13" t="s">
         <v>315</v>
       </c>
       <c r="O37" s="7"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="8">
         <v>38</v>
       </c>
@@ -2712,25 +2722,25 @@
       <c r="G38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="18" t="s">
         <v>19</v>
       </c>
       <c r="M38" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="N38" s="19" t="s">
+      <c r="N38" s="13" t="s">
         <v>154</v>
       </c>
       <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="8">
         <v>39</v>
       </c>
@@ -2749,21 +2759,21 @@
       <c r="G39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="14"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="11" t="s">
         <v>17</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="L39" s="14"/>
+      <c r="L39" s="19"/>
       <c r="M39" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="N39" s="19" t="s">
+      <c r="N39" s="13" t="s">
         <v>158</v>
       </c>
       <c r="O39" s="7" t="s">
@@ -2771,7 +2781,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="23" t="s">
         <v>160</v>
       </c>
       <c r="B40" s="8">
@@ -2783,13 +2793,13 @@
       <c r="F40" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="I40" s="14"/>
+      <c r="I40" s="19"/>
       <c r="J40" s="11" t="s">
         <v>164</v>
       </c>
@@ -2802,13 +2812,13 @@
       <c r="M40" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="N40" s="19" t="s">
+      <c r="N40" s="13" t="s">
         <v>166</v>
       </c>
       <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="8">
         <v>41</v>
       </c>
@@ -2818,24 +2828,24 @@
       <c r="F41" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="13" t="s">
+      <c r="G41" s="19"/>
+      <c r="H41" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="I41" s="14"/>
+      <c r="I41" s="19"/>
       <c r="J41" s="9"/>
       <c r="K41" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="19" t="s">
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="13" t="s">
         <v>170</v>
       </c>
       <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="8">
         <v>42</v>
       </c>
@@ -2845,28 +2855,28 @@
       <c r="F42" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="13" t="s">
+      <c r="G42" s="19"/>
+      <c r="H42" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="I42" s="14"/>
+      <c r="I42" s="19"/>
       <c r="J42" s="11" t="s">
         <v>164</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="14"/>
+      <c r="L42" s="19"/>
       <c r="M42" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="N42" s="19" t="s">
+      <c r="N42" s="13" t="s">
         <v>175</v>
       </c>
       <c r="O42" s="7"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="8">
         <v>43</v>
       </c>
@@ -2876,26 +2886,26 @@
       <c r="F43" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="13" t="s">
+      <c r="G43" s="19"/>
+      <c r="H43" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="I43" s="14"/>
+      <c r="I43" s="19"/>
       <c r="J43" s="11" t="s">
         <v>164</v>
       </c>
       <c r="K43" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="19" t="s">
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="13" t="s">
         <v>178</v>
       </c>
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="8">
         <v>44</v>
       </c>
@@ -2905,11 +2915,11 @@
       <c r="F44" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G44" s="14"/>
+      <c r="G44" s="19"/>
       <c r="H44" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="14"/>
+      <c r="I44" s="19"/>
       <c r="J44" s="18" t="s">
         <v>17</v>
       </c>
@@ -2919,14 +2929,14 @@
       <c r="L44" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M44" s="14"/>
-      <c r="N44" s="19" t="s">
+      <c r="M44" s="19"/>
+      <c r="N44" s="13" t="s">
         <v>182</v>
       </c>
       <c r="O44" s="7"/>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="8">
         <v>45</v>
       </c>
@@ -2936,22 +2946,22 @@
       <c r="F45" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
       <c r="K45" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="19" t="s">
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="13" t="s">
         <v>185</v>
       </c>
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="8">
         <v>46</v>
       </c>
@@ -2961,22 +2971,22 @@
       <c r="F46" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
       <c r="K46" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="19" t="s">
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="13" t="s">
         <v>188</v>
       </c>
       <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="8">
         <v>47</v>
       </c>
@@ -2986,51 +2996,51 @@
       <c r="F47" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
       <c r="J47" s="18" t="s">
         <v>191</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="19" t="s">
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="13" t="s">
         <v>192</v>
       </c>
       <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="8">
         <v>48</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
       <c r="F48" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
       <c r="K48" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="19" t="s">
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="13" t="s">
         <v>195</v>
       </c>
       <c r="O48" s="7"/>
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="8">
         <v>49</v>
       </c>
@@ -3040,22 +3050,22 @@
       <c r="F49" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
       <c r="K49" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="19" t="s">
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="13" t="s">
         <v>198</v>
       </c>
       <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="21" t="s">
         <v>199</v>
       </c>
       <c r="B50" s="10"/>
@@ -3065,12 +3075,12 @@
       <c r="F50" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="N50" s="19" t="s">
+      <c r="N50" s="13" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="10"/>
       <c r="C51" s="4" t="s">
         <v>310</v>
@@ -3078,12 +3088,12 @@
       <c r="F51" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="N51" s="19" t="s">
+      <c r="N51" s="13" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="10"/>
       <c r="C52" s="4" t="s">
         <v>202</v>
@@ -3091,12 +3101,12 @@
       <c r="F52" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="N52" s="19" t="s">
+      <c r="N52" s="13" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="10"/>
       <c r="C53" s="4" t="s">
         <v>204</v>
@@ -3104,12 +3114,12 @@
       <c r="F53" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="N53" s="19" t="s">
+      <c r="N53" s="13" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="10"/>
       <c r="C54" s="4" t="s">
         <v>207</v>
@@ -3117,12 +3127,12 @@
       <c r="F54" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="N54" s="19" t="s">
+      <c r="N54" s="13" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="10"/>
       <c r="C55" s="4" t="s">
         <v>210</v>
@@ -3130,12 +3140,12 @@
       <c r="F55" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="N55" s="19" t="s">
+      <c r="N55" s="13" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="10"/>
       <c r="C56" s="4" t="s">
         <v>213</v>
@@ -3143,12 +3153,12 @@
       <c r="F56" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="N56" s="19" t="s">
+      <c r="N56" s="13" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="10"/>
       <c r="C57" s="4" t="s">
         <v>215</v>
@@ -3156,12 +3166,12 @@
       <c r="F57" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="N57" s="19" t="s">
+      <c r="N57" s="13" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="10"/>
       <c r="C58" s="4" t="s">
         <v>218</v>
@@ -3169,12 +3179,12 @@
       <c r="F58" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N58" s="19" t="s">
+      <c r="N58" s="13" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="10"/>
       <c r="C59" s="4" t="s">
         <v>221</v>
@@ -3182,12 +3192,12 @@
       <c r="F59" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="N59" s="19" t="s">
+      <c r="N59" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="10"/>
       <c r="C60" s="4" t="s">
         <v>224</v>
@@ -3195,12 +3205,12 @@
       <c r="F60" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="N60" s="19" t="s">
+      <c r="N60" s="13" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="10"/>
       <c r="C61" s="4" t="s">
         <v>226</v>
@@ -3208,12 +3218,12 @@
       <c r="F61" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="N61" s="19" t="s">
+      <c r="N61" s="13" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="10"/>
       <c r="C62" s="4" t="s">
         <v>229</v>
@@ -3221,12 +3231,12 @@
       <c r="F62" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="N62" s="19" t="s">
+      <c r="N62" s="13" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="10"/>
       <c r="C63" s="4" t="s">
         <v>232</v>
@@ -3234,12 +3244,12 @@
       <c r="F63" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="N63" s="19" t="s">
+      <c r="N63" s="13" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="10"/>
       <c r="C64" s="4" t="s">
         <v>235</v>
@@ -3247,12 +3257,12 @@
       <c r="F64" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="N64" s="19" t="s">
+      <c r="N64" s="13" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="10"/>
       <c r="C65" s="4" t="s">
         <v>238</v>
@@ -3260,12 +3270,12 @@
       <c r="F65" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="N65" s="19" t="s">
+      <c r="N65" s="13" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="10"/>
       <c r="C66" s="4" t="s">
         <v>241</v>
@@ -3273,12 +3283,12 @@
       <c r="F66" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="N66" s="19" t="s">
+      <c r="N66" s="13" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="16"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="10"/>
       <c r="C67" s="4" t="s">
         <v>243</v>
@@ -3286,12 +3296,12 @@
       <c r="F67" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="N67" s="19" t="s">
+      <c r="N67" s="13" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="16"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="10"/>
       <c r="C68" s="4" t="s">
         <v>246</v>
@@ -3299,12 +3309,12 @@
       <c r="F68" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="N68" s="19" t="s">
+      <c r="N68" s="13" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="16"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="10"/>
       <c r="C69" s="4" t="s">
         <v>249</v>
@@ -3312,12 +3322,12 @@
       <c r="F69" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="N69" s="19" t="s">
+      <c r="N69" s="13" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="16"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="10"/>
       <c r="C70" s="4" t="s">
         <v>252</v>
@@ -3325,12 +3335,12 @@
       <c r="F70" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="N70" s="19" t="s">
+      <c r="N70" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="10"/>
       <c r="C71" s="4" t="s">
         <v>255</v>
@@ -3338,12 +3348,12 @@
       <c r="F71" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="N71" s="19" t="s">
+      <c r="N71" s="13" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="16"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="10"/>
       <c r="C72" s="4" t="s">
         <v>258</v>
@@ -3351,12 +3361,12 @@
       <c r="F72" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="N72" s="19" t="s">
+      <c r="N72" s="13" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="16"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="10"/>
       <c r="C73" s="4" t="s">
         <v>261</v>
@@ -3364,12 +3374,12 @@
       <c r="F73" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="N73" s="19" t="s">
+      <c r="N73" s="13" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="10"/>
       <c r="C74" s="4" t="s">
         <v>264</v>
@@ -3377,12 +3387,12 @@
       <c r="F74" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="N74" s="19" t="s">
+      <c r="N74" s="13" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="16"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="10"/>
       <c r="C75" s="4" t="s">
         <v>266</v>
@@ -3390,12 +3400,12 @@
       <c r="F75" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="N75" s="19" t="s">
+      <c r="N75" s="13" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="16"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="10"/>
       <c r="C76" s="4" t="s">
         <v>269</v>
@@ -3403,12 +3413,12 @@
       <c r="F76" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="N76" s="19" t="s">
+      <c r="N76" s="13" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="10"/>
       <c r="C77" s="4" t="s">
         <v>272</v>
@@ -3416,12 +3426,12 @@
       <c r="F77" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="N77" s="19" t="s">
+      <c r="N77" s="13" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="16"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="10"/>
       <c r="C78" s="4" t="s">
         <v>275</v>
@@ -3429,12 +3439,12 @@
       <c r="F78" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="N78" s="19" t="s">
+      <c r="N78" s="13" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="16"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="10"/>
       <c r="C79" s="4" t="s">
         <v>278</v>
@@ -3442,12 +3452,12 @@
       <c r="F79" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="N79" s="19" t="s">
+      <c r="N79" s="13" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="16"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="10"/>
       <c r="C80" s="4" t="s">
         <v>281</v>
@@ -3455,12 +3465,12 @@
       <c r="F80" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="N80" s="19" t="s">
+      <c r="N80" s="13" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="16"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="10"/>
       <c r="C81" s="4" t="s">
         <v>284</v>
@@ -3468,12 +3478,12 @@
       <c r="F81" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="N81" s="19" t="s">
+      <c r="N81" s="13" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="16"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="10"/>
       <c r="C82" s="4" t="s">
         <v>287</v>
@@ -3481,12 +3491,12 @@
       <c r="F82" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="N82" s="19" t="s">
+      <c r="N82" s="13" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="10"/>
       <c r="C83" s="4" t="s">
         <v>290</v>
@@ -3494,12 +3504,12 @@
       <c r="F83" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="N83" s="19" t="s">
+      <c r="N83" s="13" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="10"/>
       <c r="C84" s="4" t="s">
         <v>293</v>
@@ -3507,12 +3517,12 @@
       <c r="F84" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="N84" s="19" t="s">
+      <c r="N84" s="13" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="16"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="10"/>
       <c r="C85" s="4" t="s">
         <v>296</v>
@@ -3520,12 +3530,12 @@
       <c r="F85" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="N85" s="19" t="s">
+      <c r="N85" s="13" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="16"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="10"/>
       <c r="C86" s="4" t="s">
         <v>299</v>
@@ -3533,13 +3543,50 @@
       <c r="F86" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N86" s="19" t="s">
+      <c r="N86" s="13" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="53">
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H32:H37"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A50:A86"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="G11:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="G40:G49"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="M32:M37"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M49"/>
     <mergeCell ref="N22:N23"/>
     <mergeCell ref="H22:K23"/>
     <mergeCell ref="H2:I7"/>
@@ -3556,43 +3603,6 @@
     <mergeCell ref="M2:M10"/>
     <mergeCell ref="M11:M20"/>
     <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="M32:M37"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M49"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="A50:A86"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="G11:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G37"/>
-    <mergeCell ref="G40:G49"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H32:H37"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ins_set.xlsx
+++ b/doc/ins_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F45577-0F38-4C6D-A168-FC0150D34AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F14BDC-C4E7-4C03-B364-3A615FEF7CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="319">
   <si>
     <t>struct</t>
   </si>
@@ -1138,6 +1138,10 @@
   </si>
   <si>
     <t>1100111</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1254,17 +1258,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1272,11 +1276,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1586,8 +1590,8 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1659,7 +1663,7 @@
       <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8">
@@ -1680,20 +1684,20 @@
       <c r="G2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="13" t="s">
@@ -1702,7 +1706,7 @@
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="8">
         <v>3</v>
       </c>
@@ -1718,22 +1722,22 @@
       <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="8">
         <v>4</v>
       </c>
@@ -1743,22 +1747,22 @@
       <c r="F4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="18"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="17"/>
       <c r="N4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="8">
         <v>5</v>
       </c>
@@ -1768,22 +1772,22 @@
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="13" t="s">
         <v>33</v>
       </c>
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="8">
         <v>6</v>
       </c>
@@ -1793,22 +1797,22 @@
       <c r="F6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="18"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="13" t="s">
         <v>37</v>
       </c>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="8">
         <v>7</v>
       </c>
@@ -1818,22 +1822,22 @@
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="13" t="s">
         <v>41</v>
       </c>
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="8">
         <v>8</v>
       </c>
@@ -1843,26 +1847,26 @@
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="18" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="19" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="13" t="s">
         <v>47</v>
       </c>
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="8">
         <v>9</v>
       </c>
@@ -1872,22 +1876,22 @@
       <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="13" t="s">
         <v>51</v>
       </c>
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="8">
         <v>10</v>
       </c>
@@ -1897,22 +1901,22 @@
       <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="13" t="s">
         <v>55</v>
       </c>
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="8">
         <v>11</v>
       </c>
@@ -1937,12 +1941,12 @@
       <c r="I11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18" t="s">
+      <c r="J11" s="19"/>
+      <c r="K11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="19" t="s">
         <v>59</v>
       </c>
       <c r="N11" s="13" t="s">
@@ -1951,7 +1955,7 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="8">
         <v>12</v>
       </c>
@@ -1967,22 +1971,22 @@
       <c r="F12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="13" t="s">
         <v>63</v>
       </c>
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="8">
         <v>13</v>
       </c>
@@ -1998,24 +2002,24 @@
       <c r="F13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="18" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="18"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="13" t="s">
         <v>65</v>
       </c>
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="8">
         <v>14</v>
       </c>
@@ -2025,22 +2029,22 @@
       <c r="F14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="18"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="17"/>
       <c r="N14" s="13" t="s">
         <v>67</v>
       </c>
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="8">
         <v>15</v>
       </c>
@@ -2050,22 +2054,22 @@
       <c r="F15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="18"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="17"/>
       <c r="N15" s="13" t="s">
         <v>70</v>
       </c>
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="8">
         <v>16</v>
       </c>
@@ -2075,22 +2079,22 @@
       <c r="F16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="18"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="19"/>
       <c r="K16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="17"/>
       <c r="N16" s="13" t="s">
         <v>73</v>
       </c>
       <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="8">
         <v>17</v>
       </c>
@@ -2100,22 +2104,22 @@
       <c r="F17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="17"/>
       <c r="N17" s="13" t="s">
         <v>76</v>
       </c>
       <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="8">
         <v>18</v>
       </c>
@@ -2125,22 +2129,22 @@
       <c r="F18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="17"/>
       <c r="N18" s="13" t="s">
         <v>79</v>
       </c>
       <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="8">
         <v>19</v>
       </c>
@@ -2150,24 +2154,24 @@
       <c r="F19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="18" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="18"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="17"/>
       <c r="N19" s="13" t="s">
         <v>82</v>
       </c>
       <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="8">
         <v>20</v>
       </c>
@@ -2177,22 +2181,22 @@
       <c r="F20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="17"/>
       <c r="N20" s="13" t="s">
         <v>85</v>
       </c>
       <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="8">
         <v>21</v>
       </c>
@@ -2208,13 +2212,13 @@
       <c r="G21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="18"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="11" t="s">
         <v>90</v>
       </c>
@@ -2224,7 +2228,7 @@
       <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="8">
         <v>22</v>
       </c>
@@ -2234,24 +2238,24 @@
       <c r="F22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="18" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18" t="s">
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="16" t="s">
+      <c r="N22" s="22" t="s">
         <v>95</v>
       </c>
       <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="8">
         <v>23</v>
       </c>
@@ -2267,18 +2271,18 @@
       <c r="F23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="23"/>
       <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="18" t="s">
         <v>98</v>
       </c>
       <c r="B24" s="8">
@@ -2293,18 +2297,18 @@
       <c r="G24" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="18" t="s">
+      <c r="I24" s="17"/>
+      <c r="J24" s="19" t="s">
         <v>17</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18" t="s">
+      <c r="L24" s="19"/>
+      <c r="M24" s="19" t="s">
         <v>101</v>
       </c>
       <c r="N24" s="13" t="s">
@@ -2313,7 +2317,7 @@
       <c r="O24" s="7"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="8">
         <v>25</v>
       </c>
@@ -2323,47 +2327,50 @@
       <c r="F25" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="18"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="19"/>
       <c r="K25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="17"/>
       <c r="N25" s="13" t="s">
         <v>105</v>
       </c>
       <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="8">
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="D26" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="F26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="18"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="17"/>
       <c r="N26" s="13" t="s">
         <v>108</v>
       </c>
       <c r="O26" s="7"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="8">
         <v>27</v>
       </c>
@@ -2373,22 +2380,22 @@
       <c r="F27" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="18"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="19"/>
       <c r="K27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="17"/>
       <c r="N27" s="13" t="s">
         <v>111</v>
       </c>
       <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="8">
         <v>28</v>
       </c>
@@ -2398,25 +2405,28 @@
       <c r="D28" s="4" t="s">
         <v>307</v>
       </c>
+      <c r="E28" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="F28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="18"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="19"/>
       <c r="K28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="17"/>
       <c r="N28" s="13" t="s">
         <v>114</v>
       </c>
       <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="8">
         <v>29</v>
       </c>
@@ -2429,20 +2439,20 @@
       <c r="G29" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="19" t="s">
         <v>118</v>
       </c>
       <c r="I29" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="18"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="L29" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="M29" s="18" t="s">
+      <c r="M29" s="19" t="s">
         <v>120</v>
       </c>
       <c r="N29" s="13" t="s">
@@ -2451,7 +2461,7 @@
       <c r="O29" s="7"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="8">
         <v>30</v>
       </c>
@@ -2461,22 +2471,22 @@
       <c r="F30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="20"/>
-      <c r="J30" s="18"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
       <c r="N30" s="13" t="s">
         <v>124</v>
       </c>
       <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="8">
         <v>31</v>
       </c>
@@ -2492,22 +2502,22 @@
       <c r="F31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="20"/>
-      <c r="J31" s="18"/>
+      <c r="J31" s="19"/>
       <c r="K31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
       <c r="N31" s="13" t="s">
         <v>127</v>
       </c>
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="18" t="s">
         <v>128</v>
       </c>
       <c r="B32" s="8">
@@ -2528,18 +2538,18 @@
       <c r="G32" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="19" t="s">
         <v>132</v>
       </c>
       <c r="I32" s="20"/>
-      <c r="J32" s="18"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="L32" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="M32" s="18" t="s">
+      <c r="M32" s="19" t="s">
         <v>134</v>
       </c>
       <c r="N32" s="13" t="s">
@@ -2548,7 +2558,7 @@
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="8">
         <v>33</v>
       </c>
@@ -2564,22 +2574,22 @@
       <c r="F33" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="18"/>
+      <c r="J33" s="19"/>
       <c r="K33" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
       <c r="N33" s="13" t="s">
         <v>138</v>
       </c>
       <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="8">
         <v>34</v>
       </c>
@@ -2595,22 +2605,22 @@
       <c r="F34" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="20"/>
-      <c r="J34" s="18"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
       <c r="N34" s="14" t="s">
         <v>141</v>
       </c>
       <c r="O34" s="7"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="8">
         <v>35</v>
       </c>
@@ -2626,22 +2636,22 @@
       <c r="F35" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
       <c r="I35" s="20"/>
-      <c r="J35" s="18"/>
+      <c r="J35" s="19"/>
       <c r="K35" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
       <c r="N35" s="14" t="s">
         <v>144</v>
       </c>
       <c r="O35" s="7"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="8">
         <v>36</v>
       </c>
@@ -2657,22 +2667,22 @@
       <c r="F36" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="20"/>
-      <c r="J36" s="18"/>
+      <c r="J36" s="19"/>
       <c r="K36" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
       <c r="N36" s="13" t="s">
         <v>314</v>
       </c>
       <c r="O36" s="7"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="8">
         <v>37</v>
       </c>
@@ -2688,22 +2698,22 @@
       <c r="F37" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="20"/>
-      <c r="J37" s="18"/>
+      <c r="J37" s="19"/>
       <c r="K37" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
       <c r="N37" s="13" t="s">
         <v>315</v>
       </c>
       <c r="O37" s="7"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="8">
         <v>38</v>
       </c>
@@ -2722,13 +2732,13 @@
       <c r="G38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="18" t="s">
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="19" t="s">
         <v>19</v>
       </c>
       <c r="M38" s="11" t="s">
@@ -2740,7 +2750,7 @@
       <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="8">
         <v>39</v>
       </c>
@@ -2759,17 +2769,17 @@
       <c r="G39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="19"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="11" t="s">
         <v>17</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="L39" s="19"/>
+      <c r="L39" s="17"/>
       <c r="M39" s="11" t="s">
         <v>316</v>
       </c>
@@ -2781,7 +2791,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="18" t="s">
         <v>160</v>
       </c>
       <c r="B40" s="8">
@@ -2796,20 +2806,20 @@
       <c r="G40" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="I40" s="19"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="11" t="s">
         <v>164</v>
       </c>
       <c r="K40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="18" t="s">
+      <c r="L40" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="M40" s="18" t="s">
+      <c r="M40" s="19" t="s">
         <v>165</v>
       </c>
       <c r="N40" s="13" t="s">
@@ -2818,7 +2828,7 @@
       <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="8">
         <v>41</v>
       </c>
@@ -2828,24 +2838,24 @@
       <c r="F41" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="22" t="s">
+      <c r="G41" s="17"/>
+      <c r="H41" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="I41" s="19"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="9"/>
       <c r="K41" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
       <c r="N41" s="13" t="s">
         <v>170</v>
       </c>
       <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="8">
         <v>42</v>
       </c>
@@ -2855,19 +2865,19 @@
       <c r="F42" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="22" t="s">
+      <c r="G42" s="17"/>
+      <c r="H42" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="I42" s="19"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="11" t="s">
         <v>164</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="19"/>
-      <c r="M42" s="18" t="s">
+      <c r="L42" s="17"/>
+      <c r="M42" s="19" t="s">
         <v>174</v>
       </c>
       <c r="N42" s="13" t="s">
@@ -2876,7 +2886,7 @@
       <c r="O42" s="7"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="8">
         <v>43</v>
       </c>
@@ -2886,26 +2896,26 @@
       <c r="F43" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="22" t="s">
+      <c r="G43" s="17"/>
+      <c r="H43" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="I43" s="19"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="11" t="s">
         <v>164</v>
       </c>
       <c r="K43" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
       <c r="N43" s="13" t="s">
         <v>178</v>
       </c>
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="8">
         <v>44</v>
       </c>
@@ -2915,28 +2925,28 @@
       <c r="F44" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="18" t="s">
+      <c r="G44" s="17"/>
+      <c r="H44" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="18" t="s">
+      <c r="I44" s="17"/>
+      <c r="J44" s="19" t="s">
         <v>17</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="18" t="s">
+      <c r="L44" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M44" s="19"/>
+      <c r="M44" s="17"/>
       <c r="N44" s="13" t="s">
         <v>182</v>
       </c>
       <c r="O44" s="7"/>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="8">
         <v>45</v>
       </c>
@@ -2946,22 +2956,22 @@
       <c r="F45" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
       <c r="K45" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
       <c r="N45" s="13" t="s">
         <v>185</v>
       </c>
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="8">
         <v>46</v>
       </c>
@@ -2971,22 +2981,22 @@
       <c r="F46" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
       <c r="K46" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
       <c r="N46" s="13" t="s">
         <v>188</v>
       </c>
       <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="8">
         <v>47</v>
       </c>
@@ -2996,24 +3006,24 @@
       <c r="F47" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="18" t="s">
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="19" t="s">
         <v>191</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
       <c r="N47" s="13" t="s">
         <v>192</v>
       </c>
       <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="8">
         <v>48</v>
       </c>
@@ -3025,22 +3035,22 @@
       <c r="F48" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
       <c r="K48" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
       <c r="N48" s="13" t="s">
         <v>195</v>
       </c>
       <c r="O48" s="7"/>
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="8">
         <v>49</v>
       </c>
@@ -3050,15 +3060,15 @@
       <c r="F49" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
       <c r="K49" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
       <c r="N49" s="13" t="s">
         <v>198</v>
       </c>
@@ -3550,6 +3560,43 @@
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="53">
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="H2:I7"/>
+    <mergeCell ref="H24:I28"/>
+    <mergeCell ref="H44:I49"/>
+    <mergeCell ref="L2:L28"/>
+    <mergeCell ref="J2:J20"/>
+    <mergeCell ref="J24:J37"/>
+    <mergeCell ref="I29:I37"/>
+    <mergeCell ref="L32:L37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L44:L49"/>
+    <mergeCell ref="M2:M10"/>
+    <mergeCell ref="M11:M20"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="M32:M37"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M49"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A50:A86"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="G11:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="G40:G49"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="H42:I42"/>
@@ -3566,43 +3613,6 @@
     <mergeCell ref="I8:I10"/>
     <mergeCell ref="I11:I20"/>
     <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A50:A86"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="G11:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G37"/>
-    <mergeCell ref="G40:G49"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="M32:M37"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M49"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="H2:I7"/>
-    <mergeCell ref="H24:I28"/>
-    <mergeCell ref="H44:I49"/>
-    <mergeCell ref="L2:L28"/>
-    <mergeCell ref="J2:J20"/>
-    <mergeCell ref="J24:J37"/>
-    <mergeCell ref="I29:I37"/>
-    <mergeCell ref="L32:L37"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L44:L49"/>
-    <mergeCell ref="M2:M10"/>
-    <mergeCell ref="M11:M20"/>
-    <mergeCell ref="M22:M23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ins_set.xlsx
+++ b/doc/ins_set.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F14BDC-C4E7-4C03-B364-3A615FEF7CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4530C030-88A4-42C4-A853-811C8D49882E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$1</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="383">
   <si>
     <t>struct</t>
   </si>
@@ -1148,12 +1149,224 @@
     <t>Y</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>x0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>x9</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>x11</t>
+  </si>
+  <si>
+    <t>x12</t>
+  </si>
+  <si>
+    <t>x13</t>
+  </si>
+  <si>
+    <t>x14</t>
+  </si>
+  <si>
+    <t>x15</t>
+  </si>
+  <si>
+    <t>x16</t>
+  </si>
+  <si>
+    <t>x17</t>
+  </si>
+  <si>
+    <t>x18</t>
+  </si>
+  <si>
+    <t>x19</t>
+  </si>
+  <si>
+    <t>x20</t>
+  </si>
+  <si>
+    <t>x21</t>
+  </si>
+  <si>
+    <t>x22</t>
+  </si>
+  <si>
+    <t>x23</t>
+  </si>
+  <si>
+    <t>x24</t>
+  </si>
+  <si>
+    <t>x25</t>
+  </si>
+  <si>
+    <t>x26</t>
+  </si>
+  <si>
+    <t>x27</t>
+  </si>
+  <si>
+    <t>x28</t>
+  </si>
+  <si>
+    <t>x29</t>
+  </si>
+  <si>
+    <t>x30</t>
+  </si>
+  <si>
+    <t>x31</t>
+  </si>
+  <si>
+    <t>zero</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ra</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>t0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>s0/fp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>a0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>s2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>s3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>s9</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>t3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>t4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>t5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>t6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1192,13 +1405,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1213,7 +1447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1258,30 +1492,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1591,7 +1827,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="A26:XFD26"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1663,7 +1899,7 @@
       <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8">
@@ -1684,20 +1920,20 @@
       <c r="G2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="13" t="s">
@@ -1706,7 +1942,7 @@
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="8">
         <v>3</v>
       </c>
@@ -1722,22 +1958,22 @@
       <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="17"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
       <c r="N3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="8">
         <v>4</v>
       </c>
@@ -1747,22 +1983,22 @@
       <c r="F4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
       <c r="N4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="8">
         <v>5</v>
       </c>
@@ -1772,22 +2008,22 @@
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
       <c r="N5" s="13" t="s">
         <v>33</v>
       </c>
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="8">
         <v>6</v>
       </c>
@@ -1797,22 +2033,22 @@
       <c r="F6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="17"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="13" t="s">
         <v>37</v>
       </c>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="8">
         <v>7</v>
       </c>
@@ -1822,22 +2058,22 @@
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="17"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19"/>
       <c r="N7" s="13" t="s">
         <v>41</v>
       </c>
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="8">
         <v>8</v>
       </c>
@@ -1847,26 +2083,26 @@
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="19"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="13" t="s">
         <v>47</v>
       </c>
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="8">
         <v>9</v>
       </c>
@@ -1876,22 +2112,22 @@
       <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="13" t="s">
         <v>51</v>
       </c>
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="8">
         <v>10</v>
       </c>
@@ -1901,22 +2137,22 @@
       <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="17"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="13" t="s">
         <v>55</v>
       </c>
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8">
         <v>11</v>
       </c>
@@ -1941,12 +2177,12 @@
       <c r="I11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19" t="s">
+      <c r="J11" s="18"/>
+      <c r="K11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19" t="s">
+      <c r="L11" s="18"/>
+      <c r="M11" s="18" t="s">
         <v>59</v>
       </c>
       <c r="N11" s="13" t="s">
@@ -1955,7 +2191,7 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="8">
         <v>12</v>
       </c>
@@ -1971,22 +2207,22 @@
       <c r="F12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="17"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
       <c r="N12" s="13" t="s">
         <v>63</v>
       </c>
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="8">
         <v>13</v>
       </c>
@@ -2002,24 +2238,24 @@
       <c r="F13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="19" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="13" t="s">
         <v>65</v>
       </c>
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="8">
         <v>14</v>
       </c>
@@ -2029,22 +2265,22 @@
       <c r="F14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="17"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
       <c r="N14" s="13" t="s">
         <v>67</v>
       </c>
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="8">
         <v>15</v>
       </c>
@@ -2054,22 +2290,22 @@
       <c r="F15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="17"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19"/>
       <c r="N15" s="13" t="s">
         <v>70</v>
       </c>
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="8">
         <v>16</v>
       </c>
@@ -2079,22 +2315,22 @@
       <c r="F16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
       <c r="N16" s="13" t="s">
         <v>73</v>
       </c>
       <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="8">
         <v>17</v>
       </c>
@@ -2104,22 +2340,22 @@
       <c r="F17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19" t="s">
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="13" t="s">
         <v>76</v>
       </c>
       <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="8">
         <v>18</v>
       </c>
@@ -2129,22 +2365,22 @@
       <c r="F18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="17"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="13" t="s">
         <v>79</v>
       </c>
       <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="8">
         <v>19</v>
       </c>
@@ -2154,24 +2390,24 @@
       <c r="F19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="19" t="s">
+      <c r="G19" s="19"/>
+      <c r="H19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="17"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
       <c r="N19" s="13" t="s">
         <v>82</v>
       </c>
       <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="8">
         <v>20</v>
       </c>
@@ -2181,22 +2417,22 @@
       <c r="F20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="17"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="19"/>
       <c r="N20" s="13" t="s">
         <v>85</v>
       </c>
       <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="8">
         <v>21</v>
       </c>
@@ -2212,13 +2448,13 @@
       <c r="G21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="18"/>
       <c r="M21" s="11" t="s">
         <v>90</v>
       </c>
@@ -2228,7 +2464,7 @@
       <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="8">
         <v>22</v>
       </c>
@@ -2238,24 +2474,24 @@
       <c r="F22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="19" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19" t="s">
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="16" t="s">
         <v>95</v>
       </c>
       <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="8">
         <v>23</v>
       </c>
@@ -2271,18 +2507,18 @@
       <c r="F23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="23"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="17"/>
       <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="23" t="s">
         <v>98</v>
       </c>
       <c r="B24" s="8">
@@ -2297,18 +2533,18 @@
       <c r="G24" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="19" t="s">
+      <c r="I24" s="19"/>
+      <c r="J24" s="18" t="s">
         <v>17</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19" t="s">
+      <c r="L24" s="18"/>
+      <c r="M24" s="18" t="s">
         <v>101</v>
       </c>
       <c r="N24" s="13" t="s">
@@ -2317,7 +2553,7 @@
       <c r="O24" s="7"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="8">
         <v>25</v>
       </c>
@@ -2327,22 +2563,22 @@
       <c r="F25" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="17"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="19"/>
       <c r="N25" s="13" t="s">
         <v>105</v>
       </c>
       <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="8">
         <v>26</v>
       </c>
@@ -2355,22 +2591,22 @@
       <c r="F26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="17"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
       <c r="N26" s="13" t="s">
         <v>108</v>
       </c>
       <c r="O26" s="7"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="8">
         <v>27</v>
       </c>
@@ -2380,22 +2616,22 @@
       <c r="F27" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="17"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
       <c r="N27" s="13" t="s">
         <v>111</v>
       </c>
       <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="8">
         <v>28</v>
       </c>
@@ -2411,22 +2647,22 @@
       <c r="F28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="18"/>
       <c r="K28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="17"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="13" t="s">
         <v>114</v>
       </c>
       <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="8">
         <v>29</v>
       </c>
@@ -2439,20 +2675,20 @@
       <c r="G29" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="18" t="s">
         <v>118</v>
       </c>
       <c r="I29" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="19"/>
+      <c r="J29" s="18"/>
       <c r="K29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="18" t="s">
         <v>120</v>
       </c>
       <c r="N29" s="13" t="s">
@@ -2461,7 +2697,7 @@
       <c r="O29" s="7"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="8">
         <v>30</v>
       </c>
@@ -2471,22 +2707,22 @@
       <c r="F30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="20"/>
-      <c r="J30" s="19"/>
+      <c r="J30" s="18"/>
       <c r="K30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
       <c r="N30" s="13" t="s">
         <v>124</v>
       </c>
       <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="8">
         <v>31</v>
       </c>
@@ -2502,22 +2738,22 @@
       <c r="F31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="20"/>
-      <c r="J31" s="19"/>
+      <c r="J31" s="18"/>
       <c r="K31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
       <c r="N31" s="13" t="s">
         <v>127</v>
       </c>
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="23" t="s">
         <v>128</v>
       </c>
       <c r="B32" s="8">
@@ -2538,18 +2774,18 @@
       <c r="G32" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="18" t="s">
         <v>132</v>
       </c>
       <c r="I32" s="20"/>
-      <c r="J32" s="19"/>
+      <c r="J32" s="18"/>
       <c r="K32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="18" t="s">
         <v>134</v>
       </c>
       <c r="N32" s="13" t="s">
@@ -2558,7 +2794,7 @@
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="8">
         <v>33</v>
       </c>
@@ -2574,22 +2810,22 @@
       <c r="F33" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="19"/>
+      <c r="J33" s="18"/>
       <c r="K33" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
       <c r="N33" s="13" t="s">
         <v>138</v>
       </c>
       <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="8">
         <v>34</v>
       </c>
@@ -2605,22 +2841,22 @@
       <c r="F34" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
       <c r="I34" s="20"/>
-      <c r="J34" s="19"/>
+      <c r="J34" s="18"/>
       <c r="K34" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
       <c r="N34" s="14" t="s">
         <v>141</v>
       </c>
       <c r="O34" s="7"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="8">
         <v>35</v>
       </c>
@@ -2636,22 +2872,22 @@
       <c r="F35" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
       <c r="I35" s="20"/>
-      <c r="J35" s="19"/>
+      <c r="J35" s="18"/>
       <c r="K35" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
       <c r="N35" s="14" t="s">
         <v>144</v>
       </c>
       <c r="O35" s="7"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="8">
         <v>36</v>
       </c>
@@ -2667,22 +2903,22 @@
       <c r="F36" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
       <c r="I36" s="20"/>
-      <c r="J36" s="19"/>
+      <c r="J36" s="18"/>
       <c r="K36" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
       <c r="N36" s="13" t="s">
         <v>314</v>
       </c>
       <c r="O36" s="7"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="8">
         <v>37</v>
       </c>
@@ -2698,22 +2934,22 @@
       <c r="F37" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
       <c r="I37" s="20"/>
-      <c r="J37" s="19"/>
+      <c r="J37" s="18"/>
       <c r="K37" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
       <c r="N37" s="13" t="s">
         <v>315</v>
       </c>
       <c r="O37" s="7"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="8">
         <v>38</v>
       </c>
@@ -2732,13 +2968,13 @@
       <c r="G38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="19" t="s">
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="18" t="s">
         <v>19</v>
       </c>
       <c r="M38" s="11" t="s">
@@ -2750,7 +2986,7 @@
       <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="8">
         <v>39</v>
       </c>
@@ -2769,17 +3005,17 @@
       <c r="G39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="17"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="11" t="s">
         <v>17</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="L39" s="17"/>
+      <c r="L39" s="19"/>
       <c r="M39" s="11" t="s">
         <v>316</v>
       </c>
@@ -2791,7 +3027,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="23" t="s">
         <v>160</v>
       </c>
       <c r="B40" s="8">
@@ -2806,20 +3042,20 @@
       <c r="G40" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="I40" s="17"/>
+      <c r="I40" s="19"/>
       <c r="J40" s="11" t="s">
         <v>164</v>
       </c>
       <c r="K40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="19" t="s">
+      <c r="L40" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="M40" s="19" t="s">
+      <c r="M40" s="18" t="s">
         <v>165</v>
       </c>
       <c r="N40" s="13" t="s">
@@ -2828,7 +3064,7 @@
       <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="8">
         <v>41</v>
       </c>
@@ -2838,24 +3074,24 @@
       <c r="F41" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="16" t="s">
+      <c r="G41" s="19"/>
+      <c r="H41" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="I41" s="17"/>
+      <c r="I41" s="19"/>
       <c r="J41" s="9"/>
       <c r="K41" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
       <c r="N41" s="13" t="s">
         <v>170</v>
       </c>
       <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="8">
         <v>42</v>
       </c>
@@ -2865,19 +3101,19 @@
       <c r="F42" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="16" t="s">
+      <c r="G42" s="19"/>
+      <c r="H42" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="I42" s="17"/>
+      <c r="I42" s="19"/>
       <c r="J42" s="11" t="s">
         <v>164</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="19" t="s">
+      <c r="L42" s="19"/>
+      <c r="M42" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N42" s="13" t="s">
@@ -2886,7 +3122,7 @@
       <c r="O42" s="7"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="8">
         <v>43</v>
       </c>
@@ -2896,26 +3132,26 @@
       <c r="F43" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="16" t="s">
+      <c r="G43" s="19"/>
+      <c r="H43" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="I43" s="17"/>
+      <c r="I43" s="19"/>
       <c r="J43" s="11" t="s">
         <v>164</v>
       </c>
       <c r="K43" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
       <c r="N43" s="13" t="s">
         <v>178</v>
       </c>
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="8">
         <v>44</v>
       </c>
@@ -2925,28 +3161,28 @@
       <c r="F44" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="19" t="s">
+      <c r="G44" s="19"/>
+      <c r="H44" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="19" t="s">
+      <c r="I44" s="19"/>
+      <c r="J44" s="18" t="s">
         <v>17</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="19" t="s">
+      <c r="L44" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M44" s="17"/>
+      <c r="M44" s="19"/>
       <c r="N44" s="13" t="s">
         <v>182</v>
       </c>
       <c r="O44" s="7"/>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="8">
         <v>45</v>
       </c>
@@ -2956,22 +3192,22 @@
       <c r="F45" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
       <c r="K45" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
       <c r="N45" s="13" t="s">
         <v>185</v>
       </c>
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="8">
         <v>46</v>
       </c>
@@ -2981,22 +3217,22 @@
       <c r="F46" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
       <c r="K46" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
       <c r="N46" s="13" t="s">
         <v>188</v>
       </c>
       <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="8">
         <v>47</v>
       </c>
@@ -3006,24 +3242,24 @@
       <c r="F47" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="19" t="s">
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="18" t="s">
         <v>191</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
       <c r="N47" s="13" t="s">
         <v>192</v>
       </c>
       <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="8">
         <v>48</v>
       </c>
@@ -3035,22 +3271,22 @@
       <c r="F48" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
       <c r="K48" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
       <c r="N48" s="13" t="s">
         <v>195</v>
       </c>
       <c r="O48" s="7"/>
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="8">
         <v>49</v>
       </c>
@@ -3060,22 +3296,22 @@
       <c r="F49" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
       <c r="K49" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
       <c r="N49" s="13" t="s">
         <v>198</v>
       </c>
       <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="22" t="s">
         <v>199</v>
       </c>
       <c r="B50" s="10"/>
@@ -3090,7 +3326,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="10"/>
       <c r="C51" s="4" t="s">
         <v>310</v>
@@ -3103,7 +3339,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="10"/>
       <c r="C52" s="4" t="s">
         <v>202</v>
@@ -3116,7 +3352,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="10"/>
       <c r="C53" s="4" t="s">
         <v>204</v>
@@ -3129,7 +3365,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="10"/>
       <c r="C54" s="4" t="s">
         <v>207</v>
@@ -3142,7 +3378,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="10"/>
       <c r="C55" s="4" t="s">
         <v>210</v>
@@ -3155,7 +3391,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="10"/>
       <c r="C56" s="4" t="s">
         <v>213</v>
@@ -3168,7 +3404,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="10"/>
       <c r="C57" s="4" t="s">
         <v>215</v>
@@ -3181,7 +3417,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="10"/>
       <c r="C58" s="4" t="s">
         <v>218</v>
@@ -3194,7 +3430,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="10"/>
       <c r="C59" s="4" t="s">
         <v>221</v>
@@ -3207,7 +3443,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="10"/>
       <c r="C60" s="4" t="s">
         <v>224</v>
@@ -3220,7 +3456,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="10"/>
       <c r="C61" s="4" t="s">
         <v>226</v>
@@ -3233,7 +3469,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="10"/>
       <c r="C62" s="4" t="s">
         <v>229</v>
@@ -3246,7 +3482,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="10"/>
       <c r="C63" s="4" t="s">
         <v>232</v>
@@ -3259,7 +3495,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="10"/>
       <c r="C64" s="4" t="s">
         <v>235</v>
@@ -3272,7 +3508,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="10"/>
       <c r="C65" s="4" t="s">
         <v>238</v>
@@ -3285,7 +3521,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="10"/>
       <c r="C66" s="4" t="s">
         <v>241</v>
@@ -3298,7 +3534,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="10"/>
       <c r="C67" s="4" t="s">
         <v>243</v>
@@ -3311,7 +3547,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="10"/>
       <c r="C68" s="4" t="s">
         <v>246</v>
@@ -3324,7 +3560,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="10"/>
       <c r="C69" s="4" t="s">
         <v>249</v>
@@ -3337,7 +3573,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="10"/>
       <c r="C70" s="4" t="s">
         <v>252</v>
@@ -3350,7 +3586,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="21"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="10"/>
       <c r="C71" s="4" t="s">
         <v>255</v>
@@ -3363,7 +3599,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="10"/>
       <c r="C72" s="4" t="s">
         <v>258</v>
@@ -3376,7 +3612,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="21"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="10"/>
       <c r="C73" s="4" t="s">
         <v>261</v>
@@ -3389,7 +3625,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="10"/>
       <c r="C74" s="4" t="s">
         <v>264</v>
@@ -3402,7 +3638,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="10"/>
       <c r="C75" s="4" t="s">
         <v>266</v>
@@ -3415,7 +3651,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="21"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="10"/>
       <c r="C76" s="4" t="s">
         <v>269</v>
@@ -3428,7 +3664,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="21"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="10"/>
       <c r="C77" s="4" t="s">
         <v>272</v>
@@ -3441,7 +3677,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="10"/>
       <c r="C78" s="4" t="s">
         <v>275</v>
@@ -3454,7 +3690,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="21"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="10"/>
       <c r="C79" s="4" t="s">
         <v>278</v>
@@ -3467,7 +3703,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="21"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="10"/>
       <c r="C80" s="4" t="s">
         <v>281</v>
@@ -3480,7 +3716,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="21"/>
+      <c r="A81" s="22"/>
       <c r="B81" s="10"/>
       <c r="C81" s="4" t="s">
         <v>284</v>
@@ -3493,7 +3729,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="10"/>
       <c r="C82" s="4" t="s">
         <v>287</v>
@@ -3506,7 +3742,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="21"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="10"/>
       <c r="C83" s="4" t="s">
         <v>290</v>
@@ -3519,7 +3755,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="21"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="10"/>
       <c r="C84" s="4" t="s">
         <v>293</v>
@@ -3532,7 +3768,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="21"/>
+      <c r="A85" s="22"/>
       <c r="B85" s="10"/>
       <c r="C85" s="4" t="s">
         <v>296</v>
@@ -3545,7 +3781,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="21"/>
+      <c r="A86" s="22"/>
       <c r="B86" s="10"/>
       <c r="C86" s="4" t="s">
         <v>299</v>
@@ -3560,6 +3796,43 @@
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="53">
+    <mergeCell ref="H32:H37"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A50:A86"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="G11:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="G40:G49"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="M32:M37"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M49"/>
     <mergeCell ref="N22:N23"/>
     <mergeCell ref="H22:K23"/>
     <mergeCell ref="H2:I7"/>
@@ -3576,46 +3849,253 @@
     <mergeCell ref="M2:M10"/>
     <mergeCell ref="M11:M20"/>
     <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="M32:M37"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M49"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A50:A86"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="G11:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G37"/>
-    <mergeCell ref="G40:G49"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H32:H37"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I20"/>
-    <mergeCell ref="H21:K21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D609A2B4-8292-48E8-B4B9-9B7D2C2AC07C}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="4.125" customWidth="1"/>
+    <col min="4" max="4" width="6.25" customWidth="1"/>
+    <col min="5" max="5" width="4.75" customWidth="1"/>
+    <col min="6" max="6" width="6.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E11" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E12" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E13" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E14" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ins_set.xlsx
+++ b/doc/ins_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4530C030-88A4-42C4-A853-811C8D49882E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6A9B37-667B-400F-855C-D222133D3556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="384">
   <si>
     <t>struct</t>
   </si>
@@ -1359,6 +1359,10 @@
   </si>
   <si>
     <t>t6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1492,12 +1496,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1516,8 +1516,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1827,7 +1831,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2485,7 +2489,7 @@
       <c r="M22" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="16" t="s">
+      <c r="N22" s="24" t="s">
         <v>95</v>
       </c>
       <c r="O22" s="7"/>
@@ -2514,7 +2518,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="18"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="17"/>
+      <c r="N23" s="25"/>
       <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2526,6 +2530,12 @@
       </c>
       <c r="C24" s="4" t="s">
         <v>99</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>100</v>
@@ -2559,6 +2569,12 @@
       </c>
       <c r="C25" s="4" t="s">
         <v>103</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>104</v>
@@ -2588,6 +2604,9 @@
       <c r="D26" s="4" t="s">
         <v>318</v>
       </c>
+      <c r="E26" s="4" t="s">
+        <v>383</v>
+      </c>
       <c r="F26" s="7" t="s">
         <v>107</v>
       </c>
@@ -2613,6 +2632,12 @@
       <c r="C27" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="D27" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>383</v>
+      </c>
       <c r="F27" s="7" t="s">
         <v>110</v>
       </c>
@@ -3796,6 +3821,43 @@
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="53">
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="H2:I7"/>
+    <mergeCell ref="H24:I28"/>
+    <mergeCell ref="H44:I49"/>
+    <mergeCell ref="L2:L28"/>
+    <mergeCell ref="J2:J20"/>
+    <mergeCell ref="J24:J37"/>
+    <mergeCell ref="I29:I37"/>
+    <mergeCell ref="L32:L37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L44:L49"/>
+    <mergeCell ref="M2:M10"/>
+    <mergeCell ref="M11:M20"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="M32:M37"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M49"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H29:H31"/>
     <mergeCell ref="H32:H37"/>
     <mergeCell ref="I8:I10"/>
     <mergeCell ref="I11:I20"/>
@@ -3812,43 +3874,6 @@
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="A32:A39"/>
     <mergeCell ref="A40:A49"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="M32:M37"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M49"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="H2:I7"/>
-    <mergeCell ref="H24:I28"/>
-    <mergeCell ref="H44:I49"/>
-    <mergeCell ref="L2:L28"/>
-    <mergeCell ref="J2:J20"/>
-    <mergeCell ref="J24:J37"/>
-    <mergeCell ref="I29:I37"/>
-    <mergeCell ref="L32:L37"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L44:L49"/>
-    <mergeCell ref="M2:M10"/>
-    <mergeCell ref="M11:M20"/>
-    <mergeCell ref="M22:M23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3875,222 +3900,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="16" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="16" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="16" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="16" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="16" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="16" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="16" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="16" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="16" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="16" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="16" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="16" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="16" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="16" t="s">
         <v>382</v>
       </c>
     </row>

--- a/doc/ins_set.xlsx
+++ b/doc/ins_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6A9B37-667B-400F-855C-D222133D3556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954461E9-8E43-4A95-AC0E-88C6B64C8EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="383">
   <si>
     <t>struct</t>
   </si>
@@ -302,21 +302,12 @@
     <t>x[rd] = sext(imm[31:12] &lt;&lt; 12)</t>
   </si>
   <si>
-    <t>aui</t>
-  </si>
-  <si>
-    <t>add upper imm</t>
-  </si>
-  <si>
     <t>0010111</t>
   </si>
   <si>
     <t>x[rd] = pc + sext(imm[31:12]&lt;&lt;12)</t>
   </si>
   <si>
-    <t>auipc</t>
-  </si>
-  <si>
     <t>add upper imm to PC</t>
   </si>
   <si>
@@ -519,9 +510,6 @@
   </si>
   <si>
     <t>00000</t>
-  </si>
-  <si>
-    <t>0001111</t>
   </si>
   <si>
     <t>Fence(pred, succ)</t>
@@ -1363,6 +1351,18 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>auipc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add upper imm (aui)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001111</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1451,7 +1451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1517,10 +1517,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1830,8 +1839,8 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1859,16 +1868,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2</v>
@@ -1913,10 +1922,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>14</v>
@@ -1954,10 +1963,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>23</v>
@@ -1984,6 +1993,12 @@
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="F4" s="7" t="s">
         <v>27</v>
       </c>
@@ -2009,6 +2024,12 @@
       <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
@@ -2034,6 +2055,12 @@
       <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="F6" s="7" t="s">
         <v>35</v>
       </c>
@@ -2059,6 +2086,12 @@
       <c r="C7" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
@@ -2084,6 +2117,12 @@
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
@@ -2113,6 +2152,12 @@
       <c r="C9" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
@@ -2120,7 +2165,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="27" t="s">
         <v>50</v>
       </c>
       <c r="L9" s="18"/>
@@ -2138,6 +2183,12 @@
       <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
@@ -2147,7 +2198,7 @@
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="18"/>
       <c r="M10" s="19"/>
       <c r="N10" s="13" t="s">
@@ -2164,10 +2215,10 @@
         <v>56</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>56</v>
@@ -2182,7 +2233,7 @@
         <v>58</v>
       </c>
       <c r="J11" s="18"/>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="18"/>
@@ -2203,10 +2254,10 @@
         <v>61</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>62</v>
@@ -2217,7 +2268,7 @@
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="18"/>
       <c r="M12" s="19"/>
       <c r="N12" s="13" t="s">
@@ -2234,10 +2285,10 @@
         <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>64</v>
@@ -2265,6 +2316,12 @@
       </c>
       <c r="C14" s="4" t="s">
         <v>66</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>66</v>
@@ -2291,6 +2348,12 @@
       <c r="C15" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="F15" s="7" t="s">
         <v>69</v>
       </c>
@@ -2316,6 +2379,12 @@
       <c r="C16" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="D16" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="F16" s="7" t="s">
         <v>72</v>
       </c>
@@ -2341,6 +2410,12 @@
       <c r="C17" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="D17" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="F17" s="7" t="s">
         <v>75</v>
       </c>
@@ -2365,6 +2440,12 @@
       </c>
       <c r="C18" s="4" t="s">
         <v>77</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>78</v>
@@ -2391,6 +2472,12 @@
       <c r="C19" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="D19" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="F19" s="7" t="s">
         <v>81</v>
       </c>
@@ -2417,6 +2504,12 @@
       </c>
       <c r="C20" s="4" t="s">
         <v>83</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>84</v>
@@ -2444,7 +2537,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>87</v>
@@ -2472,11 +2568,17 @@
       <c r="B22" s="8">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>92</v>
+      <c r="C22" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>303</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>381</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="18" t="s">
@@ -2487,10 +2589,10 @@
       <c r="K22" s="19"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="N22" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="O22" s="7"/>
     </row>
@@ -2499,17 +2601,11 @@
       <c r="B23" s="8">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>307</v>
-      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -2518,30 +2614,30 @@
       <c r="K23" s="19"/>
       <c r="L23" s="18"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="25"/>
+      <c r="N23" s="26"/>
       <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B24" s="8">
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>16</v>
@@ -2555,10 +2651,10 @@
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O24" s="7"/>
     </row>
@@ -2568,16 +2664,16 @@
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -2589,7 +2685,7 @@
       <c r="L25" s="18"/>
       <c r="M25" s="19"/>
       <c r="N25" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O25" s="7"/>
     </row>
@@ -2599,16 +2695,16 @@
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -2620,7 +2716,7 @@
       <c r="L26" s="18"/>
       <c r="M26" s="19"/>
       <c r="N26" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O26" s="7"/>
     </row>
@@ -2630,16 +2726,16 @@
         <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
@@ -2651,7 +2747,7 @@
       <c r="L27" s="18"/>
       <c r="M27" s="19"/>
       <c r="N27" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O27" s="7"/>
     </row>
@@ -2661,16 +2757,16 @@
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
@@ -2682,7 +2778,7 @@
       <c r="L28" s="18"/>
       <c r="M28" s="19"/>
       <c r="N28" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O28" s="7"/>
     </row>
@@ -2692,16 +2788,22 @@
         <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>118</v>
       </c>
       <c r="I29" s="20" t="s">
         <v>58</v>
@@ -2711,13 +2813,13 @@
         <v>18</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O29" s="7"/>
     </row>
@@ -2727,10 +2829,16 @@
         <v>30</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
@@ -2742,7 +2850,7 @@
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
       <c r="N30" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O30" s="7"/>
     </row>
@@ -2752,16 +2860,16 @@
         <v>31</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
@@ -2773,34 +2881,34 @@
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
       <c r="N31" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B32" s="8">
         <v>32</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>132</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="18"/>
@@ -2808,13 +2916,13 @@
         <v>18</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O32" s="7"/>
     </row>
@@ -2824,16 +2932,16 @@
         <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
@@ -2845,7 +2953,7 @@
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
       <c r="N33" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O33" s="7"/>
     </row>
@@ -2855,16 +2963,16 @@
         <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
@@ -2876,7 +2984,7 @@
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
       <c r="N34" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O34" s="7"/>
     </row>
@@ -2886,16 +2994,16 @@
         <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
@@ -2907,7 +3015,7 @@
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O35" s="7"/>
     </row>
@@ -2917,16 +3025,16 @@
         <v>36</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
@@ -2938,7 +3046,7 @@
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="N36" s="13" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="O36" s="7"/>
     </row>
@@ -2948,16 +3056,16 @@
         <v>37</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
@@ -2969,7 +3077,7 @@
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
       <c r="N37" s="13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="O37" s="7"/>
     </row>
@@ -2979,22 +3087,22 @@
         <v>38</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>152</v>
       </c>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
@@ -3003,10 +3111,10 @@
         <v>19</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O38" s="7"/>
     </row>
@@ -3016,16 +3124,16 @@
         <v>39</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>15</v>
@@ -3038,53 +3146,53 @@
         <v>17</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L39" s="19"/>
       <c r="M39" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B40" s="8">
         <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>15</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K40" s="11" t="s">
         <v>18</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>165</v>
+        <v>382</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O40" s="7"/>
     </row>
@@ -3094,14 +3202,14 @@
         <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G41" s="19"/>
       <c r="H41" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="9"/>
@@ -3111,7 +3219,7 @@
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
       <c r="N41" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O41" s="7"/>
     </row>
@@ -3121,28 +3229,28 @@
         <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G42" s="19"/>
       <c r="H42" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>18</v>
       </c>
       <c r="L42" s="19"/>
       <c r="M42" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O42" s="7"/>
     </row>
@@ -3152,18 +3260,18 @@
         <v>43</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G43" s="19"/>
       <c r="H43" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K43" s="11" t="s">
         <v>18</v>
@@ -3171,7 +3279,7 @@
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
       <c r="N43" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O43" s="7"/>
     </row>
@@ -3181,14 +3289,14 @@
         <v>44</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G44" s="19"/>
       <c r="H44" s="18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="18" t="s">
@@ -3202,7 +3310,7 @@
       </c>
       <c r="M44" s="19"/>
       <c r="N44" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O44" s="7"/>
     </row>
@@ -3212,10 +3320,10 @@
         <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
@@ -3227,7 +3335,7 @@
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O45" s="7"/>
     </row>
@@ -3237,10 +3345,10 @@
         <v>46</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
@@ -3252,7 +3360,7 @@
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O46" s="7"/>
     </row>
@@ -3262,16 +3370,16 @@
         <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>24</v>
@@ -3279,7 +3387,7 @@
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
       <c r="N47" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O47" s="7"/>
     </row>
@@ -3289,12 +3397,12 @@
         <v>48</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
@@ -3306,7 +3414,7 @@
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
       <c r="N48" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O48" s="7"/>
     </row>
@@ -3316,10 +3424,10 @@
         <v>49</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
@@ -3331,496 +3439,536 @@
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
       <c r="N49" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N50" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
       <c r="B51" s="10"/>
       <c r="C51" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N51" s="13" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22"/>
       <c r="B52" s="10"/>
       <c r="C52" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N52" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
       <c r="B53" s="10"/>
       <c r="C53" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N53" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
       <c r="B54" s="10"/>
       <c r="C54" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22"/>
       <c r="B55" s="10"/>
       <c r="C55" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N55" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22"/>
       <c r="B56" s="10"/>
       <c r="C56" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N56" s="13" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22"/>
       <c r="B57" s="10"/>
       <c r="C57" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N57" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22"/>
       <c r="B58" s="10"/>
       <c r="C58" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N58" s="13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22"/>
       <c r="B59" s="10"/>
       <c r="C59" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N59" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22"/>
       <c r="B60" s="10"/>
       <c r="C60" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N60" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22"/>
       <c r="B61" s="10"/>
       <c r="C61" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N61" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
       <c r="B62" s="10"/>
       <c r="C62" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N62" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22"/>
       <c r="B63" s="10"/>
       <c r="C63" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N63" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22"/>
       <c r="B64" s="10"/>
       <c r="C64" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="N64" s="13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22"/>
       <c r="B65" s="10"/>
       <c r="C65" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22"/>
       <c r="B66" s="10"/>
       <c r="C66" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N66" s="13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22"/>
       <c r="B67" s="10"/>
       <c r="C67" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N67" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22"/>
       <c r="B68" s="10"/>
       <c r="C68" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N68" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22"/>
       <c r="B69" s="10"/>
       <c r="C69" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N69" s="13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22"/>
       <c r="B70" s="10"/>
       <c r="C70" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N70" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="22"/>
       <c r="B71" s="10"/>
       <c r="C71" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N71" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="22"/>
       <c r="B72" s="10"/>
       <c r="C72" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="N72" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="22"/>
       <c r="B73" s="10"/>
       <c r="C73" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N73" s="13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="22"/>
       <c r="B74" s="10"/>
       <c r="C74" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="22"/>
       <c r="B75" s="10"/>
       <c r="C75" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="N75" s="13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="22"/>
       <c r="B76" s="10"/>
       <c r="C76" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N76" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="22"/>
       <c r="B77" s="10"/>
       <c r="C77" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N77" s="13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22"/>
       <c r="B78" s="10"/>
       <c r="C78" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N78" s="13" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="22"/>
       <c r="B79" s="10"/>
       <c r="C79" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N79" s="13" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="22"/>
       <c r="B80" s="10"/>
       <c r="C80" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N80" s="13" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22"/>
       <c r="B81" s="10"/>
       <c r="C81" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N81" s="13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="22"/>
       <c r="B82" s="10"/>
       <c r="C82" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N82" s="13" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="22"/>
       <c r="B83" s="10"/>
       <c r="C83" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N83" s="13" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="22"/>
       <c r="B84" s="10"/>
       <c r="C84" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N84" s="13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="22"/>
       <c r="B85" s="10"/>
       <c r="C85" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N85" s="13" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="22"/>
       <c r="B86" s="10"/>
       <c r="C86" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N86" s="13" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="53">
+  <mergeCells count="56">
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H32:H37"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A50:A86"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="G11:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="G40:G49"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="M32:M37"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M49"/>
     <mergeCell ref="N22:N23"/>
     <mergeCell ref="H22:K23"/>
     <mergeCell ref="H2:I7"/>
@@ -3837,43 +3985,6 @@
     <mergeCell ref="M2:M10"/>
     <mergeCell ref="M11:M20"/>
     <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="M32:M37"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M49"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H32:H37"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="A50:A86"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="G11:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G37"/>
-    <mergeCell ref="G40:G49"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A40:A49"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3901,222 +4012,222 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E11" s="17" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E12" s="17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E13" s="17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E14" s="17" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ins_set.xlsx
+++ b/doc/ins_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954461E9-8E43-4A95-AC0E-88C6B64C8EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD18289A-4702-4F58-87F0-768A5FE4A7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="385">
   <si>
     <t>struct</t>
   </si>
@@ -503,9 +503,6 @@
     <t>fence</t>
   </si>
   <si>
-    <t>fence loads &amp; stores</t>
-  </si>
-  <si>
     <t>{0000, pred, succ}</t>
   </si>
   <si>
@@ -554,39 +551,18 @@
     <t>csrrc</t>
   </si>
   <si>
-    <t>control status reg read &amp; clear bit</t>
-  </si>
-  <si>
-    <t>csr</t>
-  </si>
-  <si>
-    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] &amp; x[rs1]</t>
-  </si>
-  <si>
     <t>csrrs</t>
   </si>
   <si>
-    <t>control status reg read &amp; set bit</t>
-  </si>
-  <si>
-    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] | x[rs1]</t>
-  </si>
-  <si>
     <t>csrrw</t>
   </si>
   <si>
-    <t>control status reg read &amp; write</t>
-  </si>
-  <si>
     <t>x[rd] = CSRs[csr]; CSRs[csr] = x[rs1]</t>
   </si>
   <si>
     <t>csrrci</t>
   </si>
   <si>
-    <t>control status reg read &amp; clear bit imm</t>
-  </si>
-  <si>
     <t>zimm</t>
   </si>
   <si>
@@ -596,16 +572,10 @@
     <t>csrrsi</t>
   </si>
   <si>
-    <t>control status reg read &amp; set bit imm</t>
-  </si>
-  <si>
     <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] | zimm</t>
   </si>
   <si>
     <t>csrrwi</t>
-  </si>
-  <si>
-    <t>control status reg read &amp; write imm</t>
   </si>
   <si>
     <t>x[rd] = CSRs[csr]; CSRs[csr] = zimm</t>
@@ -1363,6 +1333,54 @@
   </si>
   <si>
     <t>0001111</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fence loads &amp; stores</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] &amp; x[rs1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] | x[rs1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>control status reg read &amp; clear bit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr read &amp; clear bit imm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr read &amp; set bit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr read &amp; write</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr read &amp; set bit imm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>csr read &amp; write imm</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1451,7 +1469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1475,9 +1493,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1498,6 +1513,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1516,7 +1534,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1524,12 +1545,6 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1839,8 +1854,8 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="A41:XFD41"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1857,7 +1872,7 @@
     <col min="11" max="11" width="7.625" style="3" customWidth="1"/>
     <col min="12" max="12" width="10.625" style="3" customWidth="1"/>
     <col min="13" max="13" width="11.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="57.25" style="13" customWidth="1"/>
+    <col min="14" max="14" width="57.25" style="12" customWidth="1"/>
     <col min="15" max="15" width="13.625" style="2" customWidth="1"/>
     <col min="16" max="16" width="13.625" style="5" customWidth="1"/>
     <col min="17" max="16384" width="9" style="5"/>
@@ -1868,16 +1883,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2</v>
@@ -1885,25 +1900,25 @@
       <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="7" t="s">
@@ -1922,10 +1937,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>14</v>
@@ -1940,7 +1955,7 @@
       <c r="J2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="18" t="s">
@@ -1949,7 +1964,7 @@
       <c r="M2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="7"/>
@@ -1963,10 +1978,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>23</v>
@@ -1975,12 +1990,12 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="18"/>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="7"/>
@@ -1994,10 +2009,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>27</v>
@@ -2006,12 +2021,12 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="19"/>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="7"/>
@@ -2025,10 +2040,10 @@
         <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
@@ -2037,12 +2052,12 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="19"/>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="O5" s="7"/>
@@ -2056,10 +2071,10 @@
         <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>35</v>
@@ -2068,12 +2083,12 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>37</v>
       </c>
       <c r="O6" s="7"/>
@@ -2087,10 +2102,10 @@
         <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>39</v>
@@ -2099,12 +2114,12 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>40</v>
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="19"/>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="12" t="s">
         <v>41</v>
       </c>
       <c r="O7" s="7"/>
@@ -2118,10 +2133,10 @@
         <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
@@ -2134,12 +2149,12 @@
         <v>45</v>
       </c>
       <c r="J8" s="18"/>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>46</v>
       </c>
       <c r="L8" s="18"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="12" t="s">
         <v>47</v>
       </c>
       <c r="O8" s="7"/>
@@ -2153,10 +2168,10 @@
         <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>49</v>
@@ -2165,12 +2180,12 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="24" t="s">
         <v>50</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="12" t="s">
         <v>51</v>
       </c>
       <c r="O9" s="7"/>
@@ -2184,24 +2199,24 @@
         <v>52</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="19"/>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>54</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="28"/>
+      <c r="K10" s="25"/>
       <c r="L10" s="18"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="12" t="s">
         <v>55</v>
       </c>
       <c r="O10" s="7"/>
@@ -2215,10 +2230,10 @@
         <v>56</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>56</v>
@@ -2226,21 +2241,21 @@
       <c r="G11" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>44</v>
       </c>
       <c r="I11" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J11" s="18"/>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="24" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="12" t="s">
         <v>60</v>
       </c>
       <c r="O11" s="7"/>
@@ -2254,24 +2269,24 @@
         <v>61</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="19"/>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>54</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="28"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="18"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="12" t="s">
         <v>63</v>
       </c>
       <c r="O12" s="7"/>
@@ -2285,10 +2300,10 @@
         <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>64</v>
@@ -2299,12 +2314,12 @@
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>24</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="12" t="s">
         <v>65</v>
       </c>
       <c r="O13" s="7"/>
@@ -2318,10 +2333,10 @@
         <v>66</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>66</v>
@@ -2330,12 +2345,12 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="13" t="s">
+      <c r="N14" s="12" t="s">
         <v>67</v>
       </c>
       <c r="O14" s="7"/>
@@ -2349,10 +2364,10 @@
         <v>68</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>69</v>
@@ -2361,12 +2376,12 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="13" t="s">
+      <c r="N15" s="12" t="s">
         <v>70</v>
       </c>
       <c r="O15" s="7"/>
@@ -2380,10 +2395,10 @@
         <v>71</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>72</v>
@@ -2392,12 +2407,12 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>46</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="12" t="s">
         <v>73</v>
       </c>
       <c r="O16" s="7"/>
@@ -2411,10 +2426,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>75</v>
@@ -2428,7 +2443,7 @@
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="19"/>
-      <c r="N17" s="13" t="s">
+      <c r="N17" s="12" t="s">
         <v>76</v>
       </c>
       <c r="O17" s="7"/>
@@ -2442,16 +2457,16 @@
         <v>77</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G18" s="19"/>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>54</v>
       </c>
       <c r="I18" s="19"/>
@@ -2459,7 +2474,7 @@
       <c r="K18" s="19"/>
       <c r="L18" s="18"/>
       <c r="M18" s="19"/>
-      <c r="N18" s="13" t="s">
+      <c r="N18" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O18" s="7"/>
@@ -2473,10 +2488,10 @@
         <v>80</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>81</v>
@@ -2487,12 +2502,12 @@
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="10" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="19"/>
-      <c r="N19" s="13" t="s">
+      <c r="N19" s="12" t="s">
         <v>82</v>
       </c>
       <c r="O19" s="7"/>
@@ -2506,10 +2521,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>84</v>
@@ -2518,12 +2533,12 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="19"/>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="12" t="s">
         <v>85</v>
       </c>
       <c r="O20" s="7"/>
@@ -2537,10 +2552,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>87</v>
@@ -2555,10 +2570,10 @@
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="18"/>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="12" t="s">
         <v>91</v>
       </c>
       <c r="O21" s="7"/>
@@ -2568,17 +2583,17 @@
       <c r="B22" s="8">
         <v>22</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>303</v>
+      <c r="C22" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>293</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="18" t="s">
@@ -2591,7 +2606,7 @@
       <c r="M22" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="N22" s="25" t="s">
+      <c r="N22" s="26" t="s">
         <v>93</v>
       </c>
       <c r="O22" s="7"/>
@@ -2601,9 +2616,9 @@
       <c r="B23" s="8">
         <v>23</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="7" t="s">
         <v>94</v>
       </c>
@@ -2614,7 +2629,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="18"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="26"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2628,16 +2643,16 @@
         <v>96</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>16</v>
@@ -2646,14 +2661,14 @@
       <c r="J24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="N24" s="12" t="s">
         <v>99</v>
       </c>
       <c r="O24" s="7"/>
@@ -2667,10 +2682,10 @@
         <v>100</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>101</v>
@@ -2679,12 +2694,12 @@
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="19"/>
-      <c r="N25" s="13" t="s">
+      <c r="N25" s="12" t="s">
         <v>102</v>
       </c>
       <c r="O25" s="7"/>
@@ -2698,10 +2713,10 @@
         <v>103</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>104</v>
@@ -2710,12 +2725,12 @@
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="10" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="18"/>
       <c r="M26" s="19"/>
-      <c r="N26" s="13" t="s">
+      <c r="N26" s="12" t="s">
         <v>105</v>
       </c>
       <c r="O26" s="7"/>
@@ -2729,10 +2744,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>107</v>
@@ -2741,12 +2756,12 @@
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="10" t="s">
         <v>50</v>
       </c>
       <c r="L27" s="18"/>
       <c r="M27" s="19"/>
-      <c r="N27" s="13" t="s">
+      <c r="N27" s="12" t="s">
         <v>108</v>
       </c>
       <c r="O27" s="7"/>
@@ -2760,10 +2775,10 @@
         <v>109</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>110</v>
@@ -2772,12 +2787,12 @@
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="10" t="s">
         <v>36</v>
       </c>
       <c r="L28" s="18"/>
       <c r="M28" s="19"/>
-      <c r="N28" s="13" t="s">
+      <c r="N28" s="12" t="s">
         <v>111</v>
       </c>
       <c r="O28" s="7"/>
@@ -2791,10 +2806,10 @@
         <v>112</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>113</v>
@@ -2809,7 +2824,7 @@
         <v>58</v>
       </c>
       <c r="J29" s="18"/>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="18" t="s">
@@ -2818,7 +2833,7 @@
       <c r="M29" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="N29" s="13" t="s">
+      <c r="N29" s="12" t="s">
         <v>118</v>
       </c>
       <c r="O29" s="7"/>
@@ -2832,10 +2847,10 @@
         <v>119</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>120</v>
@@ -2844,12 +2859,12 @@
       <c r="H30" s="19"/>
       <c r="I30" s="20"/>
       <c r="J30" s="18"/>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="10" t="s">
         <v>46</v>
       </c>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
-      <c r="N30" s="13" t="s">
+      <c r="N30" s="12" t="s">
         <v>121</v>
       </c>
       <c r="O30" s="7"/>
@@ -2863,10 +2878,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>123</v>
@@ -2875,12 +2890,12 @@
       <c r="H31" s="19"/>
       <c r="I31" s="20"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="10" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
-      <c r="N31" s="13" t="s">
+      <c r="N31" s="12" t="s">
         <v>124</v>
       </c>
       <c r="O31" s="7"/>
@@ -2896,10 +2911,10 @@
         <v>126</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>127</v>
@@ -2912,7 +2927,7 @@
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L32" s="18" t="s">
@@ -2921,7 +2936,7 @@
       <c r="M32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="N32" s="13" t="s">
+      <c r="N32" s="12" t="s">
         <v>132</v>
       </c>
       <c r="O32" s="7"/>
@@ -2935,10 +2950,10 @@
         <v>133</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>134</v>
@@ -2947,12 +2962,12 @@
       <c r="H33" s="19"/>
       <c r="I33" s="20"/>
       <c r="J33" s="18"/>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="10" t="s">
         <v>46</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
-      <c r="N33" s="13" t="s">
+      <c r="N33" s="12" t="s">
         <v>135</v>
       </c>
       <c r="O33" s="7"/>
@@ -2966,10 +2981,10 @@
         <v>136</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>137</v>
@@ -2978,12 +2993,12 @@
       <c r="H34" s="19"/>
       <c r="I34" s="20"/>
       <c r="J34" s="18"/>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="13" t="s">
         <v>138</v>
       </c>
       <c r="O34" s="7"/>
@@ -2997,10 +3012,10 @@
         <v>139</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>140</v>
@@ -3009,12 +3024,12 @@
       <c r="H35" s="19"/>
       <c r="I35" s="20"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="10" t="s">
         <v>24</v>
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
-      <c r="N35" s="14" t="s">
+      <c r="N35" s="13" t="s">
         <v>141</v>
       </c>
       <c r="O35" s="7"/>
@@ -3028,10 +3043,10 @@
         <v>142</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>143</v>
@@ -3040,13 +3055,13 @@
       <c r="H36" s="19"/>
       <c r="I36" s="20"/>
       <c r="J36" s="18"/>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
-      <c r="N36" s="13" t="s">
-        <v>310</v>
+      <c r="N36" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="O36" s="7"/>
     </row>
@@ -3059,10 +3074,10 @@
         <v>144</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>145</v>
@@ -3071,13 +3086,13 @@
       <c r="H37" s="19"/>
       <c r="I37" s="20"/>
       <c r="J37" s="18"/>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="10" t="s">
         <v>28</v>
       </c>
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
-      <c r="N37" s="13" t="s">
-        <v>311</v>
+      <c r="N37" s="12" t="s">
+        <v>301</v>
       </c>
       <c r="O37" s="7"/>
     </row>
@@ -3090,10 +3105,10 @@
         <v>146</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>147</v>
@@ -3110,10 +3125,10 @@
       <c r="L38" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="N38" s="13" t="s">
+      <c r="N38" s="12" t="s">
         <v>151</v>
       </c>
       <c r="O38" s="7"/>
@@ -3127,10 +3142,10 @@
         <v>152</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>153</v>
@@ -3142,17 +3157,17 @@
         <v>16</v>
       </c>
       <c r="I39" s="19"/>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="K39" s="11" t="s">
         <v>154</v>
       </c>
       <c r="L39" s="19"/>
-      <c r="M39" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="N39" s="13" t="s">
+      <c r="M39" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="N39" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O39" s="7" t="s">
@@ -3169,30 +3184,36 @@
       <c r="C40" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="D40" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="F40" s="7" t="s">
-        <v>159</v>
+        <v>373</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>15</v>
       </c>
       <c r="H40" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="11" t="s">
+      <c r="K40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="N40" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="M40" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="N40" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="O40" s="7"/>
     </row>
@@ -3202,24 +3223,26 @@
         <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="G41" s="19"/>
       <c r="H41" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I41" s="19"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="11" t="s">
+      <c r="J41" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="K41" s="10" t="s">
         <v>46</v>
       </c>
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
-      <c r="N41" s="13" t="s">
-        <v>166</v>
+      <c r="N41" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="O41" s="7"/>
     </row>
@@ -3229,28 +3252,34 @@
         <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="G42" s="19"/>
       <c r="H42" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I42" s="19"/>
-      <c r="J42" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K42" s="11" t="s">
+      <c r="J42" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K42" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L42" s="19"/>
       <c r="M42" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="N42" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="N42" s="13" t="s">
-        <v>171</v>
       </c>
       <c r="O42" s="7"/>
     </row>
@@ -3260,26 +3289,26 @@
         <v>43</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G43" s="19"/>
       <c r="H43" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I43" s="19"/>
-      <c r="J43" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K43" s="11" t="s">
+      <c r="J43" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K43" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
-      <c r="N43" s="13" t="s">
-        <v>174</v>
+      <c r="N43" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="O43" s="7"/>
     </row>
@@ -3289,28 +3318,28 @@
         <v>44</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>176</v>
+        <v>379</v>
       </c>
       <c r="G44" s="19"/>
       <c r="H44" s="18" t="s">
-        <v>177</v>
+        <v>378</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="10" t="s">
         <v>40</v>
       </c>
       <c r="L44" s="18" t="s">
         <v>19</v>
       </c>
       <c r="M44" s="19"/>
-      <c r="N44" s="13" t="s">
-        <v>178</v>
+      <c r="N44" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="O44" s="7"/>
     </row>
@@ -3320,22 +3349,22 @@
         <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="10" t="s">
         <v>36</v>
       </c>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
-      <c r="N45" s="13" t="s">
-        <v>181</v>
+      <c r="N45" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="O45" s="7"/>
     </row>
@@ -3345,22 +3374,22 @@
         <v>46</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>183</v>
+        <v>382</v>
       </c>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="10" t="s">
         <v>46</v>
       </c>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
-      <c r="N46" s="13" t="s">
-        <v>184</v>
+      <c r="N46" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="O46" s="7"/>
     </row>
@@ -3370,24 +3399,24 @@
         <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>186</v>
+        <v>380</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="K47" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="K47" s="10" t="s">
         <v>24</v>
       </c>
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
-      <c r="N47" s="13" t="s">
-        <v>188</v>
+      <c r="N47" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="O47" s="7"/>
     </row>
@@ -3396,25 +3425,25 @@
       <c r="B48" s="8">
         <v>48</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
+      <c r="C48" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="6" t="s">
-        <v>190</v>
+        <v>383</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="10" t="s">
         <v>28</v>
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
-      <c r="N48" s="13" t="s">
-        <v>191</v>
+      <c r="N48" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="O48" s="7"/>
     </row>
@@ -3424,530 +3453,532 @@
         <v>49</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>193</v>
+        <v>384</v>
       </c>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="10" t="s">
         <v>50</v>
       </c>
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
-      <c r="N49" s="13" t="s">
-        <v>194</v>
+      <c r="N49" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B50" s="10"/>
+        <v>185</v>
+      </c>
+      <c r="B50" s="9"/>
       <c r="C50" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="N50" s="13" t="s">
-        <v>299</v>
+        <v>187</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
-      <c r="B51" s="10"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="4" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="N51" s="13" t="s">
-        <v>308</v>
+        <v>297</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22"/>
-      <c r="B52" s="10"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N52" s="13" t="s">
-        <v>300</v>
+        <v>189</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
-      <c r="B53" s="10"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N53" s="13" t="s">
-        <v>202</v>
+        <v>191</v>
+      </c>
+      <c r="N53" s="12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
-      <c r="B54" s="10"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="N54" s="13" t="s">
-        <v>205</v>
+        <v>194</v>
+      </c>
+      <c r="N54" s="12" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22"/>
-      <c r="B55" s="10"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N55" s="13" t="s">
-        <v>208</v>
+        <v>197</v>
+      </c>
+      <c r="N55" s="12" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22"/>
-      <c r="B56" s="10"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="N56" s="13" t="s">
-        <v>301</v>
+        <v>200</v>
+      </c>
+      <c r="N56" s="12" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22"/>
-      <c r="B57" s="10"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="N57" s="13" t="s">
-        <v>213</v>
+        <v>202</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22"/>
-      <c r="B58" s="10"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="4" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="N58" s="13" t="s">
-        <v>216</v>
+        <v>205</v>
+      </c>
+      <c r="N58" s="12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22"/>
-      <c r="B59" s="10"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="N59" s="13" t="s">
-        <v>219</v>
+        <v>208</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22"/>
-      <c r="B60" s="10"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="N60" s="13" t="s">
-        <v>221</v>
+        <v>210</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22"/>
-      <c r="B61" s="10"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="N61" s="13" t="s">
-        <v>224</v>
+        <v>213</v>
+      </c>
+      <c r="N61" s="12" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
-      <c r="B62" s="10"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="N62" s="13" t="s">
-        <v>227</v>
+        <v>216</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22"/>
-      <c r="B63" s="10"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N63" s="13" t="s">
-        <v>230</v>
+        <v>219</v>
+      </c>
+      <c r="N63" s="12" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22"/>
-      <c r="B64" s="10"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N64" s="13" t="s">
-        <v>233</v>
+        <v>222</v>
+      </c>
+      <c r="N64" s="12" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22"/>
-      <c r="B65" s="10"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="N65" s="13" t="s">
-        <v>236</v>
+        <v>225</v>
+      </c>
+      <c r="N65" s="12" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22"/>
-      <c r="B66" s="10"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="N66" s="13" t="s">
-        <v>298</v>
+        <v>228</v>
+      </c>
+      <c r="N66" s="12" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22"/>
-      <c r="B67" s="10"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="N67" s="13" t="s">
-        <v>241</v>
+        <v>230</v>
+      </c>
+      <c r="N67" s="12" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22"/>
-      <c r="B68" s="10"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="N68" s="13" t="s">
-        <v>244</v>
+        <v>233</v>
+      </c>
+      <c r="N68" s="12" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22"/>
-      <c r="B69" s="10"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="N69" s="13" t="s">
-        <v>247</v>
+        <v>236</v>
+      </c>
+      <c r="N69" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22"/>
-      <c r="B70" s="10"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="4" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="N70" s="13" t="s">
-        <v>250</v>
+        <v>239</v>
+      </c>
+      <c r="N70" s="12" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="22"/>
-      <c r="B71" s="10"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="4" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="N71" s="13" t="s">
-        <v>253</v>
+        <v>242</v>
+      </c>
+      <c r="N71" s="12" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="22"/>
-      <c r="B72" s="10"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="N72" s="13" t="s">
-        <v>256</v>
+        <v>245</v>
+      </c>
+      <c r="N72" s="12" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="22"/>
-      <c r="B73" s="10"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="N73" s="13" t="s">
-        <v>259</v>
+        <v>248</v>
+      </c>
+      <c r="N73" s="12" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="22"/>
-      <c r="B74" s="10"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="N74" s="13" t="s">
-        <v>261</v>
+        <v>250</v>
+      </c>
+      <c r="N74" s="12" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="22"/>
-      <c r="B75" s="10"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="N75" s="13" t="s">
-        <v>264</v>
+        <v>253</v>
+      </c>
+      <c r="N75" s="12" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="22"/>
-      <c r="B76" s="10"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="4" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="N76" s="13" t="s">
-        <v>267</v>
+        <v>256</v>
+      </c>
+      <c r="N76" s="12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="22"/>
-      <c r="B77" s="10"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="N77" s="13" t="s">
-        <v>270</v>
+        <v>259</v>
+      </c>
+      <c r="N77" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22"/>
-      <c r="B78" s="10"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="4" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="N78" s="13" t="s">
-        <v>273</v>
+        <v>262</v>
+      </c>
+      <c r="N78" s="12" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="22"/>
-      <c r="B79" s="10"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="N79" s="13" t="s">
-        <v>276</v>
+        <v>265</v>
+      </c>
+      <c r="N79" s="12" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="22"/>
-      <c r="B80" s="10"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="N80" s="13" t="s">
-        <v>279</v>
+        <v>268</v>
+      </c>
+      <c r="N80" s="12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22"/>
-      <c r="B81" s="10"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="N81" s="13" t="s">
-        <v>282</v>
+        <v>271</v>
+      </c>
+      <c r="N81" s="12" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="22"/>
-      <c r="B82" s="10"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="N82" s="13" t="s">
-        <v>285</v>
+        <v>274</v>
+      </c>
+      <c r="N82" s="12" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="22"/>
-      <c r="B83" s="10"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="N83" s="13" t="s">
-        <v>288</v>
+        <v>277</v>
+      </c>
+      <c r="N83" s="12" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="22"/>
-      <c r="B84" s="10"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="N84" s="13" t="s">
-        <v>291</v>
+        <v>280</v>
+      </c>
+      <c r="N84" s="12" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="22"/>
-      <c r="B85" s="10"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="N85" s="13" t="s">
-        <v>294</v>
+        <v>283</v>
+      </c>
+      <c r="N85" s="12" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="22"/>
-      <c r="B86" s="10"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="4" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="N86" s="13" t="s">
-        <v>297</v>
+        <v>286</v>
+      </c>
+      <c r="N86" s="12" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="56">
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H32:H37"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="A50:A86"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="G11:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G37"/>
-    <mergeCell ref="G40:G49"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="H2:I7"/>
+    <mergeCell ref="H24:I28"/>
+    <mergeCell ref="H44:I49"/>
+    <mergeCell ref="L2:L28"/>
+    <mergeCell ref="J2:J20"/>
+    <mergeCell ref="J24:J37"/>
+    <mergeCell ref="I29:I37"/>
+    <mergeCell ref="L32:L37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L44:L49"/>
+    <mergeCell ref="M2:M10"/>
+    <mergeCell ref="M11:M20"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="M32:M37"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M49"/>
     <mergeCell ref="L29:L31"/>
     <mergeCell ref="J44:J46"/>
     <mergeCell ref="J47:J49"/>
@@ -3964,27 +3995,25 @@
     <mergeCell ref="H13:H17"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="H29:H31"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="M32:M37"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M49"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="H2:I7"/>
-    <mergeCell ref="H24:I28"/>
-    <mergeCell ref="H44:I49"/>
-    <mergeCell ref="L2:L28"/>
-    <mergeCell ref="J2:J20"/>
-    <mergeCell ref="J24:J37"/>
-    <mergeCell ref="I29:I37"/>
-    <mergeCell ref="L32:L37"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L44:L49"/>
-    <mergeCell ref="M2:M10"/>
-    <mergeCell ref="M11:M20"/>
-    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A50:A86"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="G11:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="G40:G49"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H32:H37"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I20"/>
+    <mergeCell ref="H21:K21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4011,223 +4040,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E1" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="E1" s="17" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E11" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E2" s="17" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E12" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="E3" s="17" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E13" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="E4" s="17" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E14" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E11" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E12" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E13" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E14" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ins_set.xlsx
+++ b/doc/ins_set.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD18289A-4702-4F58-87F0-768A5FE4A7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE0B2E5-4B5C-4839-B73B-11E19411EF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13170" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="388">
   <si>
     <t>struct</t>
   </si>
@@ -86,12 +86,6 @@
     <t>rd</t>
   </si>
   <si>
-    <t>0010011</t>
-  </si>
-  <si>
-    <t>x[rd] = x[rs1] + sext(imm)</t>
-  </si>
-  <si>
     <t>andi</t>
   </si>
   <si>
@@ -161,9 +155,6 @@
     <t>0000000</t>
   </si>
   <si>
-    <t>shamt</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -233,9 +224,6 @@
     <t>xor</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>x[rd] = x[rs1] ^ x[rs2]</t>
   </si>
   <si>
@@ -284,30 +272,18 @@
     <t>x[rd] = (x[rs1] &lt; x[rs2])  --u</t>
   </si>
   <si>
-    <t>lui</t>
-  </si>
-  <si>
     <t>load upper imm</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>imm[31:12]</t>
   </si>
   <si>
     <t>0110111</t>
   </si>
   <si>
-    <t>x[rd] = sext(imm[31:12] &lt;&lt; 12)</t>
-  </si>
-  <si>
     <t>0010111</t>
   </si>
   <si>
-    <t>x[rd] = pc + sext(imm[31:12]&lt;&lt;12)</t>
-  </si>
-  <si>
     <t>add upper imm to PC</t>
   </si>
   <si>
@@ -413,12 +389,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>imm[12|10:5]</t>
-  </si>
-  <si>
-    <t>imm[4:1|11]</t>
-  </si>
-  <si>
     <t>1100011</t>
   </si>
   <si>
@@ -464,34 +434,16 @@
     <t>branch less than unsigned</t>
   </si>
   <si>
-    <t>jal</t>
-  </si>
-  <si>
-    <t>jump and link</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
-    <t>imm[20|10:1|11|19:12]</t>
-  </si>
-  <si>
     <t>1101111</t>
   </si>
   <si>
-    <t>x[rd] = pc +4; pc += sext(offset)</t>
-  </si>
-  <si>
-    <t>jalr</t>
-  </si>
-  <si>
     <t>jump and link register</t>
   </si>
   <si>
     <t>010(000)</t>
-  </si>
-  <si>
-    <t>x[rd] = pc + 4; pc += (x[rs1]+sext(offset)) &amp; (~1)</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -670,6 +622,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>加</t>
@@ -685,6 +638,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>若省略</t>
@@ -700,6 +654,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>则默认为</t>
@@ -790,6 +745,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>加</t>
@@ -820,6 +776,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和</t>
@@ -835,6 +792,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">或 </t>
@@ -865,6 +823,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">加 </t>
@@ -1027,6 +986,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">加 </t>
@@ -1383,12 +1343,88 @@
     <t>csr read &amp; write imm</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>I/J</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = x[rs1] + sext(imm)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm[12|10:5]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shamt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm[4:1|11]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010011</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jalr</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = pc + 4; pc += (x[rs1]+sext(offset)) &amp; (~1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lui</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm[31:12]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = sext(imm[31:12] &lt;&lt; 12)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = pc + sext(imm[31:12]&lt;&lt;12)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump and link</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm[20|10:1|11|19:12]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = pc +4; pc += sext(offset)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1418,6 +1454,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1441,6 +1478,31 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Fira Code"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Fira Code"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Fira Code"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Fira Code"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Fira Code"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1469,7 +1531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1506,16 +1568,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1534,18 +1590,162 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1854,8 +2054,8 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1863,7 +2063,8 @@
     <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="6.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="4" customWidth="1"/>
     <col min="6" max="6" width="39.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="5.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.625" style="3" customWidth="1"/>
@@ -1883,16 +2084,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2</v>
@@ -1926,2033 +2127,2033 @@
       </c>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="32">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="33"/>
+    </row>
+    <row r="3" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="32">
+        <v>3</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="D3" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="8">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="10" t="s">
+      <c r="O3" s="33"/>
+    </row>
+    <row r="4" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="32">
+        <v>4</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="12" t="s">
+      <c r="D4" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="8">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="16"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="10" t="s">
+      <c r="O4" s="33"/>
+    </row>
+    <row r="5" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="32">
+        <v>5</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="12" t="s">
+      <c r="D5" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="8">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="16"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="10" t="s">
+      <c r="O5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="32">
+        <v>6</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="12" t="s">
+      <c r="D6" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="8">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="L6" s="16"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="10" t="s">
+      <c r="O6" s="33"/>
+    </row>
+    <row r="7" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="32">
+        <v>7</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="12" t="s">
+      <c r="D7" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="8">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="16"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="10" t="s">
+      <c r="O7" s="33"/>
+    </row>
+    <row r="8" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="32">
+        <v>8</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="12" t="s">
+      <c r="D8" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="8">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="G8" s="36"/>
+      <c r="H8" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="18" t="s">
+      <c r="L8" s="16"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="O8" s="33"/>
+    </row>
+    <row r="9" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="32">
+        <v>9</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="10" t="s">
+      <c r="D9" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="12" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="8">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="L9" s="16"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="O9" s="33"/>
+    </row>
+    <row r="10" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="32">
+        <v>10</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="24" t="s">
+      <c r="D10" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="12" t="s">
+      <c r="G10" s="36"/>
+      <c r="H10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="8">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="I10" s="36"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="O10" s="33"/>
+    </row>
+    <row r="11" spans="1:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22">
+        <v>11</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="10" t="s">
+      <c r="D11" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="12" t="s">
+      <c r="H11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="8">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="J11" s="16"/>
+      <c r="K11" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="20" t="s">
+      <c r="N11" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="20" t="s">
+      <c r="O11" s="23"/>
+    </row>
+    <row r="12" spans="1:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22">
+        <v>12</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="24" t="s">
+      <c r="D12" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="23"/>
+    </row>
+    <row r="13" spans="1:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22">
+        <v>13</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="23"/>
+    </row>
+    <row r="14" spans="1:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22">
+        <v>14</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="23"/>
+    </row>
+    <row r="15" spans="1:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22">
+        <v>15</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="23"/>
+    </row>
+    <row r="16" spans="1:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22">
+        <v>16</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="17" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22">
+        <v>17</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="23"/>
+    </row>
+    <row r="18" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22">
         <v>18</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="8">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="8">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="10" t="s">
+      <c r="C18" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22">
+        <v>19</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22">
+        <v>20</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="23"/>
+    </row>
+    <row r="21" spans="1:15" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="59">
+        <v>21</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>380</v>
+      </c>
+      <c r="H21" s="62" t="s">
+        <v>381</v>
+      </c>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" s="65" t="s">
+        <v>382</v>
+      </c>
+      <c r="O21" s="60"/>
+    </row>
+    <row r="22" spans="1:15" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="59">
+        <v>22</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>355</v>
+      </c>
+      <c r="G22" s="63"/>
+      <c r="H22" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="69" t="s">
+        <v>383</v>
+      </c>
+      <c r="O22" s="60"/>
+    </row>
+    <row r="23" spans="1:15" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="59">
+        <v>23</v>
+      </c>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="60"/>
+    </row>
+    <row r="24" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="22">
         <v>24</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="8">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="10" t="s">
+      <c r="C24" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" s="23"/>
+    </row>
+    <row r="25" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22">
+        <v>25</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="O25" s="23"/>
+    </row>
+    <row r="26" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22">
+        <v>26</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="16"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" s="23"/>
+    </row>
+    <row r="27" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22">
+        <v>27</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="O27" s="23"/>
+    </row>
+    <row r="28" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22">
         <v>28</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="8">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="10" t="s">
+      <c r="C28" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="16"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="O28" s="23"/>
+    </row>
+    <row r="29" spans="1:15" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="42">
+        <v>29</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="16"/>
+      <c r="K29" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="M29" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="N29" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="O29" s="43"/>
+    </row>
+    <row r="30" spans="1:15" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="42">
+        <v>30</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="O30" s="43"/>
+    </row>
+    <row r="31" spans="1:15" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="42">
+        <v>31</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="O31" s="43"/>
+    </row>
+    <row r="32" spans="1:15" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="50">
         <v>32</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="8">
+      <c r="C32" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="H32" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="53" t="s">
+        <v>373</v>
+      </c>
+      <c r="M32" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="O32" s="51"/>
+    </row>
+    <row r="33" spans="1:15" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="50">
+        <v>33</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="O33" s="51"/>
+    </row>
+    <row r="34" spans="1:15" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="50">
+        <v>34</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="O34" s="51"/>
+    </row>
+    <row r="35" spans="1:15" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="50">
+        <v>35</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="O35" s="51"/>
+    </row>
+    <row r="36" spans="1:15" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="50">
+        <v>36</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="O36" s="51"/>
+    </row>
+    <row r="37" spans="1:15" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="50">
+        <v>37</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="O37" s="51"/>
+    </row>
+    <row r="38" spans="1:15" s="77" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="71">
+        <v>38</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>385</v>
+      </c>
+      <c r="D38" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="E38" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="F38" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="G38" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" s="73" t="s">
+        <v>386</v>
+      </c>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="N38" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="O38" s="72"/>
+    </row>
+    <row r="39" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="22">
+        <v>39</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="H39" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="8">
+      <c r="I39" s="29"/>
+      <c r="J39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="8">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="8">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="8">
-        <v>20</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="8">
-        <v>21</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="8">
-        <v>22</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="N22" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="8">
-        <v>23</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="8">
-        <v>24</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="8">
-        <v>25</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="8">
-        <v>26</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="8">
-        <v>27</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="8">
-        <v>28</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="O28" s="7"/>
-    </row>
-    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="8">
-        <v>29</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="M29" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="O29" s="7"/>
-    </row>
-    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="8">
-        <v>30</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="O30" s="7"/>
-    </row>
-    <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="8">
-        <v>31</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="O31" s="7"/>
-    </row>
-    <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="8">
-        <v>32</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="M32" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="N32" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="O32" s="7"/>
-    </row>
-    <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="8">
-        <v>33</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="O33" s="7"/>
-    </row>
-    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="8">
-        <v>34</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="8">
-        <v>35</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="K39" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="L39" s="17"/>
+      <c r="M39" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="O39" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="13" t="s">
+    </row>
+    <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
         <v>141</v>
-      </c>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="8">
-        <v>36</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
-      <c r="B37" s="8">
-        <v>37</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="O37" s="7"/>
-    </row>
-    <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
-      <c r="B38" s="8">
-        <v>38</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="O38" s="7"/>
-    </row>
-    <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
-      <c r="B39" s="8">
-        <v>39</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="L39" s="19"/>
-      <c r="M39" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
-        <v>157</v>
       </c>
       <c r="B40" s="8">
         <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G40" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="G40" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="I40" s="19"/>
+      <c r="H40" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="17"/>
       <c r="J40" s="10" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="M40" s="18" t="s">
-        <v>372</v>
+      <c r="L40" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>356</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="8">
         <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="I41" s="19"/>
+        <v>147</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I41" s="17"/>
       <c r="J41" s="10" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
       <c r="N41" s="12" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="8">
         <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="I42" s="19"/>
+        <v>151</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I42" s="17"/>
       <c r="J42" s="10" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="19"/>
-      <c r="M42" s="18" t="s">
-        <v>169</v>
+      <c r="L42" s="17"/>
+      <c r="M42" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="O42" s="7"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="8">
         <v>43</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="I43" s="19"/>
+        <v>156</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I43" s="17"/>
       <c r="J43" s="10" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="K43" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
       <c r="N43" s="12" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="8">
         <v>44</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="16" t="s">
         <v>17</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L44" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M44" s="19"/>
+      <c r="M44" s="17"/>
       <c r="N44" s="12" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="O44" s="7"/>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="8">
         <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
+        <v>365</v>
+      </c>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
       <c r="K45" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
       <c r="N45" s="12" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="8">
         <v>46</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
+        <v>366</v>
+      </c>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
       <c r="K46" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
       <c r="N46" s="12" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="8">
         <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="18" t="s">
-        <v>179</v>
+        <v>364</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
+        <v>22</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
       <c r="N47" s="12" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="8">
         <v>48</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
+      <c r="C48" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
       <c r="F48" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
+        <v>367</v>
+      </c>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
       <c r="K48" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
       <c r="N48" s="12" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="O48" s="7"/>
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="8">
         <v>49</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
+        <v>368</v>
+      </c>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
       <c r="K49" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
       <c r="N49" s="12" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
-        <v>185</v>
+      <c r="A50" s="20" t="s">
+        <v>169</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="4" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="9"/>
       <c r="C51" s="4" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="9"/>
       <c r="C52" s="4" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="9"/>
       <c r="C53" s="4" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="9"/>
       <c r="C54" s="4" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="9"/>
       <c r="C55" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="9"/>
       <c r="C56" s="4" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="N56" s="12" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="9"/>
       <c r="C57" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="N57" s="12" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="9"/>
       <c r="C58" s="4" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="9"/>
       <c r="C59" s="4" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="9"/>
       <c r="C60" s="4" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="9"/>
       <c r="C61" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="9"/>
       <c r="C62" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="9"/>
       <c r="C63" s="4" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
+      <c r="A64" s="20"/>
       <c r="B64" s="9"/>
       <c r="C64" s="4" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+      <c r="A65" s="20"/>
       <c r="B65" s="9"/>
       <c r="C65" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="9"/>
       <c r="C66" s="4" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="9"/>
       <c r="C67" s="4" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="9"/>
       <c r="C68" s="4" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="N68" s="12" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="22"/>
+      <c r="A69" s="20"/>
       <c r="B69" s="9"/>
       <c r="C69" s="4" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="N69" s="12" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="9"/>
       <c r="C70" s="4" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="N70" s="12" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
+      <c r="A71" s="20"/>
       <c r="B71" s="9"/>
       <c r="C71" s="4" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="N71" s="12" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
+      <c r="A72" s="20"/>
       <c r="B72" s="9"/>
       <c r="C72" s="4" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="N72" s="12" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
+      <c r="A73" s="20"/>
       <c r="B73" s="9"/>
       <c r="C73" s="4" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="N73" s="12" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="22"/>
+      <c r="A74" s="20"/>
       <c r="B74" s="9"/>
       <c r="C74" s="4" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="9"/>
       <c r="C75" s="4" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="N75" s="12" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
+      <c r="A76" s="20"/>
       <c r="B76" s="9"/>
       <c r="C76" s="4" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="N76" s="12" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
+      <c r="A77" s="20"/>
       <c r="B77" s="9"/>
       <c r="C77" s="4" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="N77" s="12" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
+      <c r="A78" s="20"/>
       <c r="B78" s="9"/>
       <c r="C78" s="4" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="N78" s="12" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="9"/>
       <c r="C79" s="4" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="N79" s="12" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
+      <c r="A80" s="20"/>
       <c r="B80" s="9"/>
       <c r="C80" s="4" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="N80" s="12" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="22"/>
+      <c r="A81" s="20"/>
       <c r="B81" s="9"/>
       <c r="C81" s="4" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="N81" s="12" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="22"/>
+      <c r="A82" s="20"/>
       <c r="B82" s="9"/>
       <c r="C82" s="4" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="N82" s="12" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="22"/>
+      <c r="A83" s="20"/>
       <c r="B83" s="9"/>
       <c r="C83" s="4" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="N83" s="12" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="9"/>
       <c r="C84" s="4" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="N84" s="12" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="22"/>
+      <c r="A85" s="20"/>
       <c r="B85" s="9"/>
       <c r="C85" s="4" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="N85" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="22"/>
+      <c r="A86" s="20"/>
       <c r="B86" s="9"/>
       <c r="C86" s="4" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="N86" s="12" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3979,8 +4180,6 @@
     <mergeCell ref="M32:M37"/>
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="M42:M49"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="J44:J46"/>
     <mergeCell ref="J47:J49"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="K11:K12"/>
@@ -3995,6 +4194,15 @@
     <mergeCell ref="H13:H17"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="H29:H31"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="H32:H37"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I20"/>
+    <mergeCell ref="H21:K21"/>
     <mergeCell ref="A50:A86"/>
     <mergeCell ref="G2:G10"/>
     <mergeCell ref="G11:G20"/>
@@ -4007,13 +4215,6 @@
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="A32:A39"/>
     <mergeCell ref="A40:A49"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H32:H37"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I20"/>
-    <mergeCell ref="H21:K21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4040,223 +4241,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E7" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="C2" s="16" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="C3" s="16" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E11" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="C4" s="16" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E12" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="C5" s="16" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E13" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C6" s="16" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E14" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>352</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E11" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E12" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E13" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E14" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ins_set.xlsx
+++ b/doc/ins_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE0B2E5-4B5C-4839-B73B-11E19411EF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1216292A-4AAE-4E97-A5A4-2CB5EA502826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13170" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="389">
   <si>
     <t>struct</t>
   </si>
@@ -32,9 +32,6 @@
     <t>abbreviation</t>
   </si>
   <si>
-    <t>full name</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -482,24 +479,12 @@
     <t>environment break</t>
   </si>
   <si>
-    <t>0000_0000_0001</t>
-  </si>
-  <si>
-    <t>1110011</t>
-  </si>
-  <si>
-    <t>RasiseException(Breakpoint)</t>
-  </si>
-  <si>
     <t>ecall</t>
   </si>
   <si>
     <t>environment call</t>
   </si>
   <si>
-    <t>RasiseException(EnvironmentCall)</t>
-  </si>
-  <si>
     <t>csrrc</t>
   </si>
   <si>
@@ -513,9 +498,6 @@
   </si>
   <si>
     <t>csrrci</t>
-  </si>
-  <si>
-    <t>zimm</t>
   </si>
   <si>
     <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] &amp; zimm</t>
@@ -1417,6 +1399,34 @@
   </si>
   <si>
     <t>x[rd] = pc +4; pc += sext(offset)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zimm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110011</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000_0000_0001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RasiseException(Breakpoint)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RasiseException(EnvironmentCall)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>full name</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1572,6 +1582,108 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1581,171 +1693,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2054,8 +2064,8 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40:G49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2084,2081 +2094,2121 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="51"/>
+      <c r="J2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="O2" s="21"/>
+    </row>
+    <row r="3" spans="1:16" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="77"/>
+      <c r="B3" s="20">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="54"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:16" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77"/>
+      <c r="B4" s="20">
+        <v>4</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:16" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="77"/>
+      <c r="B5" s="20">
+        <v>5</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="54"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:16" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="77"/>
+      <c r="B6" s="20">
+        <v>6</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="54"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:16" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="77"/>
+      <c r="B7" s="20">
+        <v>7</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="54"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="1:16" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="77"/>
+      <c r="B8" s="20">
+        <v>8</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="54"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="1:16" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="77"/>
+      <c r="B9" s="20">
+        <v>9</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="54"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="1:16" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="77"/>
+      <c r="B10" s="20">
+        <v>10</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" spans="1:16" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="77"/>
+      <c r="B11" s="16">
+        <v>11</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="L11" s="54"/>
+      <c r="M11" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:16" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="77"/>
+      <c r="B12" s="16">
+        <v>12</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="1:16" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="77"/>
+      <c r="B13" s="16">
+        <v>13</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="53"/>
+      <c r="H13" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="54"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="1:16" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="77"/>
+      <c r="B14" s="16">
+        <v>14</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="54"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="1:16" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="77"/>
+      <c r="B15" s="16">
+        <v>15</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="54"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="1:16" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="77"/>
+      <c r="B16" s="16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="54"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="77"/>
+      <c r="B17" s="16">
+        <v>17</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="54"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="77"/>
+      <c r="B18" s="16">
+        <v>18</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="77"/>
+      <c r="B19" s="16">
+        <v>19</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="53"/>
+      <c r="H19" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="54"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="77"/>
+      <c r="B20" s="16">
+        <v>20</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="54"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" s="17"/>
+    </row>
+    <row r="21" spans="1:15" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="77"/>
+      <c r="B21" s="36">
+        <v>21</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="74" t="s">
+        <v>374</v>
+      </c>
+      <c r="H21" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="O21" s="37"/>
+    </row>
+    <row r="22" spans="1:15" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="77"/>
+      <c r="B22" s="36">
+        <v>22</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="O22" s="37"/>
+    </row>
+    <row r="23" spans="1:15" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="77"/>
+      <c r="B23" s="36">
+        <v>23</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="37"/>
+    </row>
+    <row r="24" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="16">
+        <v>24</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="54"/>
+      <c r="M24" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" s="17"/>
+    </row>
+    <row r="25" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="77"/>
+      <c r="B25" s="16">
+        <v>25</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="54"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O25" s="17"/>
+    </row>
+    <row r="26" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="77"/>
+      <c r="B26" s="16">
+        <v>26</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="54"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="77"/>
+      <c r="B27" s="16">
+        <v>27</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="54"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="77"/>
+      <c r="B28" s="16">
+        <v>28</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="54"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28" s="17"/>
+    </row>
+    <row r="29" spans="1:15" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="77"/>
+      <c r="B29" s="25">
+        <v>29</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="54"/>
+      <c r="K29" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="M29" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="O29" s="26"/>
+    </row>
+    <row r="30" spans="1:15" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="77"/>
+      <c r="B30" s="25">
+        <v>30</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="O30" s="26"/>
+    </row>
+    <row r="31" spans="1:15" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="77"/>
+      <c r="B31" s="25">
+        <v>31</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="O31" s="26"/>
+    </row>
+    <row r="32" spans="1:15" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="30">
+        <v>32</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="I32" s="56"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="M32" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="O32" s="31"/>
+    </row>
+    <row r="33" spans="1:15" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="77"/>
+      <c r="B33" s="30">
+        <v>33</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="O33" s="31"/>
+    </row>
+    <row r="34" spans="1:15" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="77"/>
+      <c r="B34" s="30">
+        <v>34</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="O34" s="31"/>
+    </row>
+    <row r="35" spans="1:15" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="77"/>
+      <c r="B35" s="30">
+        <v>35</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="O35" s="31"/>
+    </row>
+    <row r="36" spans="1:15" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="77"/>
+      <c r="B36" s="30">
+        <v>36</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="O36" s="31"/>
+    </row>
+    <row r="37" spans="1:15" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="77"/>
+      <c r="B37" s="30">
+        <v>37</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="32">
-        <v>2</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="34" t="s">
+      <c r="O37" s="31"/>
+    </row>
+    <row r="38" spans="1:15" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="77"/>
+      <c r="B38" s="41">
+        <v>38</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="N38" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="O38" s="42"/>
+    </row>
+    <row r="39" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="77"/>
+      <c r="B39" s="16">
+        <v>39</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="H39" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="I39" s="53"/>
+      <c r="J39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="N2" s="38" t="s">
+      <c r="K39" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="L39" s="55"/>
+      <c r="M39" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="N39" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="O2" s="33"/>
-    </row>
-    <row r="3" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="32">
-        <v>3</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="33"/>
-    </row>
-    <row r="4" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="32">
-        <v>4</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="33"/>
-    </row>
-    <row r="5" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="32">
-        <v>5</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="33"/>
-    </row>
-    <row r="6" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="32">
-        <v>6</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="33"/>
-    </row>
-    <row r="7" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="32">
-        <v>7</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="33"/>
-    </row>
-    <row r="8" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="32">
-        <v>8</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="33"/>
-    </row>
-    <row r="9" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="32">
-        <v>9</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="33"/>
-    </row>
-    <row r="10" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="32">
-        <v>10</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" s="33"/>
-    </row>
-    <row r="11" spans="1:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22">
-        <v>11</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="23"/>
-    </row>
-    <row r="12" spans="1:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22">
-        <v>12</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" s="23"/>
-    </row>
-    <row r="13" spans="1:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22">
-        <v>13</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="O13" s="23"/>
-    </row>
-    <row r="14" spans="1:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22">
-        <v>14</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="O14" s="23"/>
-    </row>
-    <row r="15" spans="1:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22">
-        <v>15</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="23"/>
-    </row>
-    <row r="16" spans="1:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22">
-        <v>16</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="O16" s="23"/>
-    </row>
-    <row r="17" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22">
-        <v>17</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="O17" s="23"/>
-    </row>
-    <row r="18" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22">
-        <v>18</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" s="23"/>
-    </row>
-    <row r="19" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22">
-        <v>19</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="O19" s="23"/>
-    </row>
-    <row r="20" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22">
-        <v>20</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="O20" s="23"/>
-    </row>
-    <row r="21" spans="1:15" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="59">
-        <v>21</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>379</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>277</v>
-      </c>
-      <c r="E21" s="60" t="s">
-        <v>277</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>380</v>
-      </c>
-      <c r="H21" s="62" t="s">
-        <v>381</v>
-      </c>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="N21" s="65" t="s">
-        <v>382</v>
-      </c>
-      <c r="O21" s="60"/>
-    </row>
-    <row r="22" spans="1:15" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="59">
-        <v>22</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>354</v>
-      </c>
-      <c r="D22" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="E22" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>355</v>
-      </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="N22" s="69" t="s">
-        <v>383</v>
-      </c>
-      <c r="O22" s="60"/>
-    </row>
-    <row r="23" spans="1:15" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="59">
-        <v>23</v>
-      </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="60"/>
-    </row>
-    <row r="24" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="22">
-        <v>24</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="O24" s="23"/>
-    </row>
-    <row r="25" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22">
-        <v>25</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="16"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="O25" s="23"/>
-    </row>
-    <row r="26" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22">
-        <v>26</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" s="16"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="O26" s="23"/>
-    </row>
-    <row r="27" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22">
-        <v>27</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="16"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="O27" s="23"/>
-    </row>
-    <row r="28" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22">
-        <v>28</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="O28" s="23"/>
-    </row>
-    <row r="29" spans="1:15" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="42">
-        <v>29</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="M29" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="N29" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="O29" s="43"/>
-    </row>
-    <row r="30" spans="1:15" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="42">
-        <v>30</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="O30" s="43"/>
-    </row>
-    <row r="31" spans="1:15" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="42">
-        <v>31</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="F31" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="O31" s="43"/>
-    </row>
-    <row r="32" spans="1:15" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="50">
-        <v>32</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="53" t="s">
-        <v>371</v>
-      </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="53" t="s">
-        <v>373</v>
-      </c>
-      <c r="M32" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="N32" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="O32" s="51"/>
-    </row>
-    <row r="33" spans="1:15" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="50">
-        <v>33</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="O33" s="51"/>
-    </row>
-    <row r="34" spans="1:15" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="50">
-        <v>34</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="F34" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="O34" s="51"/>
-    </row>
-    <row r="35" spans="1:15" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="50">
-        <v>35</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="O35" s="51"/>
-    </row>
-    <row r="36" spans="1:15" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="50">
-        <v>36</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="F36" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="O36" s="51"/>
-    </row>
-    <row r="37" spans="1:15" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="50">
-        <v>37</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="O37" s="51"/>
-    </row>
-    <row r="38" spans="1:15" s="77" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="71">
-        <v>38</v>
-      </c>
-      <c r="C38" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="D38" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="E38" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="F38" s="72" t="s">
-        <v>384</v>
-      </c>
-      <c r="G38" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" s="73" t="s">
-        <v>386</v>
-      </c>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M38" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="N38" s="76" t="s">
-        <v>387</v>
-      </c>
-      <c r="O38" s="72"/>
-    </row>
-    <row r="39" spans="1:15" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22">
-        <v>39</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="H39" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="11" t="s">
+      <c r="O39" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="O39" s="23" t="s">
+    </row>
+    <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="77" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
-        <v>141</v>
       </c>
       <c r="B40" s="8">
         <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G40" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="19" t="s">
+      <c r="I40" s="55"/>
+      <c r="J40" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="10" t="s">
+      <c r="K40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="M40" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="N40" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="K40" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M40" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="N40" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="8">
         <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="55"/>
+      <c r="H41" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="19" t="s">
+      <c r="I41" s="55"/>
+      <c r="J41" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="12" t="s">
-        <v>149</v>
-      </c>
       <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="8">
         <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I42" s="17"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="68" t="s">
+        <v>385</v>
+      </c>
+      <c r="I42" s="55"/>
       <c r="J42" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="16" t="s">
-        <v>153</v>
+        <v>17</v>
+      </c>
+      <c r="L42" s="55"/>
+      <c r="M42" s="54" t="s">
+        <v>384</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>154</v>
+        <v>386</v>
       </c>
       <c r="O42" s="7"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="8">
         <v>43</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I43" s="17"/>
+        <v>152</v>
+      </c>
+      <c r="G43" s="55"/>
+      <c r="H43" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="I43" s="55"/>
       <c r="J43" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
       <c r="N43" s="12" t="s">
-        <v>157</v>
+        <v>387</v>
       </c>
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="8">
         <v>44</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="16" t="s">
-        <v>17</v>
+        <v>357</v>
+      </c>
+      <c r="G44" s="55"/>
+      <c r="H44" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="I44" s="55"/>
+      <c r="J44" s="54" t="s">
+        <v>382</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L44" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M44" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="L44" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="55"/>
       <c r="N44" s="12" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="O44" s="7"/>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="8">
         <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+        <v>359</v>
+      </c>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
       <c r="K45" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
       <c r="N45" s="12" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
+      <c r="A46" s="77"/>
       <c r="B46" s="8">
         <v>46</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+        <v>360</v>
+      </c>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
       <c r="K46" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
+        <v>42</v>
+      </c>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
       <c r="N46" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="8">
         <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="16" t="s">
-        <v>163</v>
+        <v>358</v>
+      </c>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="54" t="s">
+        <v>383</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
       <c r="N47" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="8">
         <v>48</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+        <v>361</v>
+      </c>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
       <c r="K48" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
+        <v>25</v>
+      </c>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
       <c r="N48" s="12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="O48" s="7"/>
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="8">
         <v>49</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
+        <v>362</v>
+      </c>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
       <c r="K49" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
       <c r="N49" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
-        <v>169</v>
+      <c r="A50" s="73" t="s">
+        <v>163</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="20"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="9"/>
       <c r="C51" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="9"/>
       <c r="C52" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="9"/>
       <c r="C53" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="9"/>
       <c r="C54" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="9"/>
       <c r="C55" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
+      <c r="A56" s="73"/>
       <c r="B56" s="9"/>
       <c r="C56" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N56" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
+      <c r="A57" s="73"/>
       <c r="B57" s="9"/>
       <c r="C57" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="N57" s="12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
+      <c r="A58" s="73"/>
       <c r="B58" s="9"/>
       <c r="C58" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
+      <c r="A59" s="73"/>
       <c r="B59" s="9"/>
       <c r="C59" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
+      <c r="A60" s="73"/>
       <c r="B60" s="9"/>
       <c r="C60" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
+      <c r="A61" s="73"/>
       <c r="B61" s="9"/>
       <c r="C61" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
+      <c r="A62" s="73"/>
       <c r="B62" s="9"/>
       <c r="C62" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="9"/>
       <c r="C63" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="9"/>
       <c r="C64" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="9"/>
       <c r="C65" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="9"/>
       <c r="C66" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="9"/>
       <c r="C67" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="9"/>
       <c r="C68" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="N68" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="20"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="9"/>
       <c r="C69" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N69" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="20"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="9"/>
       <c r="C70" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="N70" s="12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="9"/>
       <c r="C71" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="N71" s="12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="20"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="9"/>
       <c r="C72" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N72" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="20"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="9"/>
       <c r="C73" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N73" s="12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="20"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="9"/>
       <c r="C74" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="20"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="9"/>
       <c r="C75" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N75" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="20"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="9"/>
       <c r="C76" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="N76" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="20"/>
+      <c r="A77" s="73"/>
       <c r="B77" s="9"/>
       <c r="C77" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="N77" s="12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="20"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="9"/>
       <c r="C78" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N78" s="12" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="20"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="9"/>
       <c r="C79" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="N79" s="12" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="20"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="9"/>
       <c r="C80" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="N80" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="20"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="9"/>
       <c r="C81" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N81" s="12" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="20"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="9"/>
       <c r="C82" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="N82" s="12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="20"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="9"/>
       <c r="C83" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="N83" s="12" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="20"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="9"/>
       <c r="C84" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="N84" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="20"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="9"/>
       <c r="C85" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N85" s="12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="20"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="9"/>
       <c r="C86" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="N86" s="12" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="56">
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A50:A86"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="G11:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="G40:G49"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="H32:H37"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I20"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="M32:M37"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M49"/>
     <mergeCell ref="N22:N23"/>
     <mergeCell ref="H22:K23"/>
     <mergeCell ref="H2:I7"/>
@@ -4175,46 +4225,6 @@
     <mergeCell ref="M2:M10"/>
     <mergeCell ref="M11:M20"/>
     <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="M32:M37"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="H32:H37"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="A50:A86"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="G11:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G37"/>
-    <mergeCell ref="G40:G49"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A40:A49"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4242,222 +4252,222 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E11" s="15" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E12" s="15" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E13" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E14" s="15" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
